--- a/data/532/HKMA/Prices and yields of Government Bonds.xlsx
+++ b/data/532/HKMA/Prices and yields of Government Bonds.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HKM" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,485 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="158">
-  <si>
-    <t>end_of_month</t>
-  </si>
-  <si>
-    <t>ind_pricing_2y</t>
-  </si>
-  <si>
-    <t>ind_pricing_3y</t>
-  </si>
-  <si>
-    <t>ind_pricing_5y</t>
-  </si>
-  <si>
-    <t>ind_pricing_10y</t>
-  </si>
-  <si>
-    <t>ind_pricing_15y</t>
-  </si>
-  <si>
-    <t>closing_ref_rate_2y</t>
-  </si>
-  <si>
-    <t>closing_ref_rate_3y</t>
-  </si>
-  <si>
-    <t>closing_ref_rate_5y</t>
-  </si>
-  <si>
-    <t>closing_ref_rate_10y</t>
-  </si>
-  <si>
-    <t>closing_ref_rate_15y</t>
-  </si>
-  <si>
-    <t>2009-09</t>
-  </si>
-  <si>
-    <t>2009-10</t>
-  </si>
-  <si>
-    <t>2009-11</t>
-  </si>
-  <si>
-    <t>2009-12</t>
-  </si>
-  <si>
-    <t>2010-01</t>
-  </si>
-  <si>
-    <t>2010-02</t>
-  </si>
-  <si>
-    <t>2010-03</t>
-  </si>
-  <si>
-    <t>2010-04</t>
-  </si>
-  <si>
-    <t>2010-05</t>
-  </si>
-  <si>
-    <t>2010-06</t>
-  </si>
-  <si>
-    <t>2010-07</t>
-  </si>
-  <si>
-    <t>2010-08</t>
-  </si>
-  <si>
-    <t>2010-09</t>
-  </si>
-  <si>
-    <t>2010-10</t>
-  </si>
-  <si>
-    <t>2010-11</t>
-  </si>
-  <si>
-    <t>2010-12</t>
-  </si>
-  <si>
-    <t>2011-01</t>
-  </si>
-  <si>
-    <t>2011-02</t>
-  </si>
-  <si>
-    <t>2011-03</t>
-  </si>
-  <si>
-    <t>2011-04</t>
-  </si>
-  <si>
-    <t>2011-05</t>
-  </si>
-  <si>
-    <t>2011-06</t>
-  </si>
-  <si>
-    <t>2011-07</t>
-  </si>
-  <si>
-    <t>2011-08</t>
-  </si>
-  <si>
-    <t>2011-09</t>
-  </si>
-  <si>
-    <t>2011-10</t>
-  </si>
-  <si>
-    <t>2011-11</t>
-  </si>
-  <si>
-    <t>2011-12</t>
-  </si>
-  <si>
-    <t>2012-01</t>
-  </si>
-  <si>
-    <t>2012-02</t>
-  </si>
-  <si>
-    <t>2012-03</t>
-  </si>
-  <si>
-    <t>2012-04</t>
-  </si>
-  <si>
-    <t>2012-05</t>
-  </si>
-  <si>
-    <t>2012-06</t>
-  </si>
-  <si>
-    <t>2012-07</t>
-  </si>
-  <si>
-    <t>2012-08</t>
-  </si>
-  <si>
-    <t>2012-09</t>
-  </si>
-  <si>
-    <t>2012-10</t>
-  </si>
-  <si>
-    <t>2012-11</t>
-  </si>
-  <si>
-    <t>2012-12</t>
-  </si>
-  <si>
-    <t>2013-01</t>
-  </si>
-  <si>
-    <t>2013-02</t>
-  </si>
-  <si>
-    <t>2013-03</t>
-  </si>
-  <si>
-    <t>2013-04</t>
-  </si>
-  <si>
-    <t>2013-05</t>
-  </si>
-  <si>
-    <t>2013-06</t>
-  </si>
-  <si>
-    <t>2013-07</t>
-  </si>
-  <si>
-    <t>2013-08</t>
-  </si>
-  <si>
-    <t>2013-09</t>
-  </si>
-  <si>
-    <t>2013-10</t>
-  </si>
-  <si>
-    <t>2013-11</t>
-  </si>
-  <si>
-    <t>2013-12</t>
-  </si>
-  <si>
-    <t>2014-01</t>
-  </si>
-  <si>
-    <t>2014-02</t>
-  </si>
-  <si>
-    <t>2014-03</t>
-  </si>
-  <si>
-    <t>2014-04</t>
-  </si>
-  <si>
-    <t>2014-05</t>
-  </si>
-  <si>
-    <t>2014-06</t>
-  </si>
-  <si>
-    <t>2014-07</t>
-  </si>
-  <si>
-    <t>2014-08</t>
-  </si>
-  <si>
-    <t>2014-09</t>
-  </si>
-  <si>
-    <t>2014-10</t>
-  </si>
-  <si>
-    <t>2014-11</t>
-  </si>
-  <si>
-    <t>2014-12</t>
-  </si>
-  <si>
-    <t>2015-01</t>
-  </si>
-  <si>
-    <t>2015-02</t>
-  </si>
-  <si>
-    <t>2015-03</t>
-  </si>
-  <si>
-    <t>2015-04</t>
-  </si>
-  <si>
-    <t>2015-05</t>
-  </si>
-  <si>
-    <t>2015-06</t>
-  </si>
-  <si>
-    <t>2015-07</t>
-  </si>
-  <si>
-    <t>2015-08</t>
-  </si>
-  <si>
-    <t>2015-09</t>
-  </si>
-  <si>
-    <t>2015-10</t>
-  </si>
-  <si>
-    <t>2015-11</t>
-  </si>
-  <si>
-    <t>2015-12</t>
-  </si>
-  <si>
-    <t>2016-01</t>
-  </si>
-  <si>
-    <t>2016-02</t>
-  </si>
-  <si>
-    <t>2016-03</t>
-  </si>
-  <si>
-    <t>2016-04</t>
-  </si>
-  <si>
-    <t>2016-05</t>
-  </si>
-  <si>
-    <t>2016-06</t>
-  </si>
-  <si>
-    <t>2016-07</t>
-  </si>
-  <si>
-    <t>2016-08</t>
-  </si>
-  <si>
-    <t>2016-09</t>
-  </si>
-  <si>
-    <t>2016-10</t>
-  </si>
-  <si>
-    <t>2016-11</t>
-  </si>
-  <si>
-    <t>2016-12</t>
-  </si>
-  <si>
-    <t>2017-01</t>
-  </si>
-  <si>
-    <t>2017-02</t>
-  </si>
-  <si>
-    <t>2017-03</t>
-  </si>
-  <si>
-    <t>2017-04</t>
-  </si>
-  <si>
-    <t>2017-05</t>
-  </si>
-  <si>
-    <t>2017-06</t>
-  </si>
-  <si>
-    <t>2017-07</t>
-  </si>
-  <si>
-    <t>2017-08</t>
-  </si>
-  <si>
-    <t>2017-09</t>
-  </si>
-  <si>
-    <t>2017-10</t>
-  </si>
-  <si>
-    <t>2017-11</t>
-  </si>
-  <si>
-    <t>2017-12</t>
-  </si>
-  <si>
-    <t>2018-01</t>
-  </si>
-  <si>
-    <t>2018-02</t>
-  </si>
-  <si>
-    <t>2018-03</t>
-  </si>
-  <si>
-    <t>2018-04</t>
-  </si>
-  <si>
-    <t>2018-05</t>
-  </si>
-  <si>
-    <t>2018-06</t>
-  </si>
-  <si>
-    <t>2018-07</t>
-  </si>
-  <si>
-    <t>2018-08</t>
-  </si>
-  <si>
-    <t>2018-09</t>
-  </si>
-  <si>
-    <t>2018-10</t>
-  </si>
-  <si>
-    <t>2018-11</t>
-  </si>
-  <si>
-    <t>2018-12</t>
-  </si>
-  <si>
-    <t>2019-01</t>
-  </si>
-  <si>
-    <t>2019-02</t>
-  </si>
-  <si>
-    <t>2019-03</t>
-  </si>
-  <si>
-    <t>2019-04</t>
-  </si>
-  <si>
-    <t>2019-05</t>
-  </si>
-  <si>
-    <t>2019-06</t>
-  </si>
-  <si>
-    <t>2019-07</t>
-  </si>
-  <si>
-    <t>2019-08</t>
-  </si>
-  <si>
-    <t>2019-09</t>
-  </si>
-  <si>
-    <t>2019-10</t>
-  </si>
-  <si>
-    <t>2019-11</t>
-  </si>
-  <si>
-    <t>2019-12</t>
-  </si>
-  <si>
-    <t>2020-01</t>
-  </si>
-  <si>
-    <t>2020-02</t>
-  </si>
-  <si>
-    <t>2020-03</t>
-  </si>
-  <si>
-    <t>2020-04</t>
-  </si>
-  <si>
-    <t>2020-05</t>
-  </si>
-  <si>
-    <t>2020-06</t>
-  </si>
-  <si>
-    <t>2020-07</t>
-  </si>
-  <si>
-    <t>2020-08</t>
-  </si>
-  <si>
-    <t>2020-09</t>
-  </si>
-  <si>
-    <t>2020-10</t>
-  </si>
-  <si>
-    <t>2020-11</t>
-  </si>
-  <si>
-    <t>2020-12</t>
-  </si>
-  <si>
-    <t>2021-01</t>
-  </si>
-  <si>
-    <t>2021-02</t>
-  </si>
-  <si>
-    <t>2021-03</t>
-  </si>
-  <si>
-    <t>2021-04</t>
-  </si>
-  <si>
-    <t>2021-05</t>
-  </si>
-  <si>
-    <t>2021-06</t>
-  </si>
-  <si>
-    <t>2021-07</t>
-  </si>
-  <si>
-    <t>2021-08</t>
-  </si>
-  <si>
-    <t>2021-09</t>
-  </si>
-  <si>
-    <t>2021-10</t>
-  </si>
-  <si>
-    <t>2021-11</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -837,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K148"/>
+  <dimension ref="A1:K151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -845,722 +366,798 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>end_of_month</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ind_pricing_2y</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ind_pricing_3y</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>ind_pricing_5y</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>ind_pricing_10y</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>ind_pricing_15y</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>closing_ref_rate_2y</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>closing_ref_rate_3y</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>closing_ref_rate_5y</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>closing_ref_rate_10y</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>closing_ref_rate_15y</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>2009-09</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>0.5660000000000001</v>
       </c>
-      <c r="C2" t="s"/>
-      <c r="D2" t="s"/>
-      <c r="E2" t="s"/>
-      <c r="F2" t="s"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
         <v>0.5710000000000001</v>
       </c>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
-      <c r="J2" t="s"/>
-      <c r="K2" t="s"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>2009-10</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>0.523</v>
       </c>
-      <c r="C3" t="s"/>
-      <c r="D3" t="s"/>
-      <c r="E3" t="s"/>
-      <c r="F3" t="s"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
         <v>0.522</v>
       </c>
-      <c r="H3" t="s"/>
-      <c r="I3" t="s"/>
-      <c r="J3" t="s"/>
-      <c r="K3" t="s"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2009-11</t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>0.363</v>
       </c>
-      <c r="C4" t="s"/>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
         <v>1.706</v>
       </c>
-      <c r="E4" t="s"/>
-      <c r="F4" t="s"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
         <v>0.362</v>
       </c>
-      <c r="H4" t="s"/>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
         <v>1.708</v>
       </c>
-      <c r="J4" t="s"/>
-      <c r="K4" t="s"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1" t="s">
-        <v>14</v>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>2009-12</t>
+        </is>
       </c>
       <c r="B5" t="n">
         <v>0.585</v>
       </c>
-      <c r="C5" t="s"/>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
         <v>1.976</v>
       </c>
-      <c r="E5" t="s"/>
-      <c r="F5" t="s"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
         <v>0.589</v>
       </c>
-      <c r="H5" t="s"/>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
         <v>1.976</v>
       </c>
-      <c r="J5" t="s"/>
-      <c r="K5" t="s"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>2010-01</t>
+        </is>
       </c>
       <c r="B6" t="n">
         <v>0.393</v>
       </c>
-      <c r="C6" t="s"/>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
         <v>1.972</v>
       </c>
       <c r="E6" t="n">
         <v>2.932</v>
       </c>
-      <c r="F6" t="s"/>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
         <v>0.39</v>
       </c>
-      <c r="H6" t="s"/>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
         <v>1.97</v>
       </c>
       <c r="J6" t="n">
         <v>2.932</v>
       </c>
-      <c r="K6" t="s"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
+      <c r="K6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>2010-02</t>
+        </is>
       </c>
       <c r="B7" t="n">
         <v>0.36</v>
       </c>
-      <c r="C7" t="s"/>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
         <v>1.883</v>
       </c>
       <c r="E7" t="n">
         <v>2.842</v>
       </c>
-      <c r="F7" t="s"/>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
         <v>0.357</v>
       </c>
-      <c r="H7" t="s"/>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
         <v>1.882</v>
       </c>
       <c r="J7" t="n">
         <v>2.832</v>
       </c>
-      <c r="K7" t="s"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1" t="s">
-        <v>17</v>
+      <c r="K7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>2010-03</t>
+        </is>
       </c>
       <c r="B8" t="n">
         <v>0.734</v>
       </c>
-      <c r="C8" t="s"/>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
         <v>2.001</v>
       </c>
       <c r="E8" t="n">
         <v>2.813</v>
       </c>
-      <c r="F8" t="s"/>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
         <v>0.734</v>
       </c>
-      <c r="H8" t="s"/>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
         <v>2.001</v>
       </c>
       <c r="J8" t="n">
         <v>2.815</v>
       </c>
-      <c r="K8" t="s"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1" t="s">
-        <v>18</v>
+      <c r="K8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>2010-04</t>
+        </is>
       </c>
       <c r="B9" t="n">
         <v>0.582</v>
       </c>
-      <c r="C9" t="s"/>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
         <v>2.049</v>
       </c>
       <c r="E9" t="n">
         <v>2.891</v>
       </c>
-      <c r="F9" t="s"/>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
         <v>0.581</v>
       </c>
-      <c r="H9" t="s"/>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
         <v>2.047</v>
       </c>
       <c r="J9" t="n">
         <v>2.899</v>
       </c>
-      <c r="K9" t="s"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1" t="s">
-        <v>19</v>
+      <c r="K9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>2010-05</t>
+        </is>
       </c>
       <c r="B10" t="n">
         <v>0.582</v>
       </c>
-      <c r="C10" t="s"/>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
         <v>1.636</v>
       </c>
       <c r="E10" t="n">
         <v>2.595</v>
       </c>
-      <c r="F10" t="s"/>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="n">
         <v>0.5760000000000001</v>
       </c>
-      <c r="H10" t="s"/>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
         <v>1.626</v>
       </c>
       <c r="J10" t="n">
         <v>2.594</v>
       </c>
-      <c r="K10" t="s"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1" t="s">
-        <v>20</v>
+      <c r="K10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>2010-06</t>
+        </is>
       </c>
       <c r="B11" t="n">
         <v>0.63</v>
       </c>
-      <c r="C11" t="s"/>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
         <v>1.549</v>
       </c>
       <c r="E11" t="n">
         <v>2.363</v>
       </c>
-      <c r="F11" t="s"/>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
         <v>0.624</v>
       </c>
-      <c r="H11" t="s"/>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
         <v>1.525</v>
       </c>
       <c r="J11" t="n">
         <v>2.336</v>
       </c>
-      <c r="K11" t="s"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="1" t="s">
-        <v>21</v>
+      <c r="K11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>2010-07</t>
+        </is>
       </c>
       <c r="B12" t="n">
         <v>0.35</v>
       </c>
-      <c r="C12" t="s"/>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
         <v>1.246</v>
       </c>
       <c r="E12" t="n">
         <v>2.258</v>
       </c>
-      <c r="F12" t="s"/>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="n">
         <v>0.348</v>
       </c>
-      <c r="H12" t="s"/>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
         <v>1.24</v>
       </c>
       <c r="J12" t="n">
         <v>2.251</v>
       </c>
-      <c r="K12" t="s"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="1" t="s">
-        <v>22</v>
+      <c r="K12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>2010-08</t>
+        </is>
       </c>
       <c r="B13" t="n">
         <v>0.303</v>
       </c>
-      <c r="C13" t="s"/>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
         <v>1.015</v>
       </c>
       <c r="E13" t="n">
         <v>2.022</v>
       </c>
-      <c r="F13" t="s"/>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="n">
         <v>0.295</v>
       </c>
-      <c r="H13" t="s"/>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
         <v>0.995</v>
       </c>
       <c r="J13" t="n">
         <v>1.992</v>
       </c>
-      <c r="K13" t="s"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="1" t="s">
-        <v>23</v>
+      <c r="K13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>2010-09</t>
+        </is>
       </c>
       <c r="B14" t="n">
         <v>0.486</v>
       </c>
-      <c r="C14" t="s"/>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="n">
         <v>1.009</v>
       </c>
       <c r="E14" t="n">
         <v>2.05</v>
       </c>
-      <c r="F14" t="s"/>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" t="n">
         <v>0.481</v>
       </c>
-      <c r="H14" t="s"/>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
         <v>1.004</v>
       </c>
       <c r="J14" t="n">
         <v>2.057</v>
       </c>
-      <c r="K14" t="s"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="1" t="s">
-        <v>24</v>
+      <c r="K14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>2010-10</t>
+        </is>
       </c>
       <c r="B15" t="n">
         <v>0.454</v>
       </c>
-      <c r="C15" t="s"/>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="n">
         <v>0.926</v>
       </c>
       <c r="E15" t="n">
         <v>2.169</v>
       </c>
-      <c r="F15" t="s"/>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="n">
         <v>0.448</v>
       </c>
-      <c r="H15" t="s"/>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
         <v>0.907</v>
       </c>
       <c r="J15" t="n">
         <v>2.161</v>
       </c>
-      <c r="K15" t="s"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="1" t="s">
-        <v>25</v>
+      <c r="K15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>2010-11</t>
+        </is>
       </c>
       <c r="B16" t="n">
         <v>0.51</v>
       </c>
-      <c r="C16" t="s"/>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="n">
         <v>1.116</v>
       </c>
       <c r="E16" t="n">
         <v>2.421</v>
       </c>
-      <c r="F16" t="s"/>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="n">
         <v>0.516</v>
       </c>
-      <c r="H16" t="s"/>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
         <v>1.113</v>
       </c>
       <c r="J16" t="n">
         <v>2.419</v>
       </c>
-      <c r="K16" t="s"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="1" t="s">
-        <v>26</v>
+      <c r="K16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>2010-12</t>
+        </is>
       </c>
       <c r="B17" t="n">
         <v>0.554</v>
       </c>
-      <c r="C17" t="s"/>
+      <c r="C17" t="inlineStr"/>
       <c r="D17" t="n">
         <v>1.795</v>
       </c>
       <c r="E17" t="n">
         <v>2.768</v>
       </c>
-      <c r="F17" t="s"/>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="n">
         <v>0.5660000000000001</v>
       </c>
-      <c r="H17" t="s"/>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
         <v>1.795</v>
       </c>
       <c r="J17" t="n">
         <v>2.778</v>
       </c>
-      <c r="K17" t="s"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="1" t="s">
-        <v>27</v>
+      <c r="K17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>2011-01</t>
+        </is>
       </c>
       <c r="B18" t="n">
         <v>0.418</v>
       </c>
-      <c r="C18" t="s"/>
+      <c r="C18" t="inlineStr"/>
       <c r="D18" t="n">
         <v>1.704</v>
       </c>
       <c r="E18" t="n">
         <v>2.693</v>
       </c>
-      <c r="F18" t="s"/>
+      <c r="F18" t="inlineStr"/>
       <c r="G18" t="n">
         <v>0.412</v>
       </c>
-      <c r="H18" t="s"/>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
         <v>1.693</v>
       </c>
       <c r="J18" t="n">
         <v>2.687</v>
       </c>
-      <c r="K18" t="s"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="1" t="s">
-        <v>28</v>
+      <c r="K18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>2011-02</t>
+        </is>
       </c>
       <c r="B19" t="n">
         <v>0.468</v>
       </c>
-      <c r="C19" t="s"/>
+      <c r="C19" t="inlineStr"/>
       <c r="D19" t="n">
         <v>1.838</v>
       </c>
       <c r="E19" t="n">
         <v>2.678</v>
       </c>
-      <c r="F19" t="s"/>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="n">
         <v>0.461</v>
       </c>
-      <c r="H19" t="s"/>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
         <v>1.836</v>
       </c>
       <c r="J19" t="n">
         <v>2.674</v>
       </c>
-      <c r="K19" t="s"/>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="1" t="s">
-        <v>29</v>
+      <c r="K19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>2011-03</t>
+        </is>
       </c>
       <c r="B20" t="n">
         <v>0.5690000000000001</v>
       </c>
-      <c r="C20" t="s"/>
+      <c r="C20" t="inlineStr"/>
       <c r="D20" t="n">
         <v>1.74</v>
       </c>
       <c r="E20" t="n">
         <v>2.557</v>
       </c>
-      <c r="F20" t="s"/>
+      <c r="F20" t="inlineStr"/>
       <c r="G20" t="n">
         <v>0.5630000000000001</v>
       </c>
-      <c r="H20" t="s"/>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="n">
         <v>1.743</v>
       </c>
       <c r="J20" t="n">
         <v>2.552</v>
       </c>
-      <c r="K20" t="s"/>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="1" t="s">
-        <v>30</v>
+      <c r="K20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>2011-04</t>
+        </is>
       </c>
       <c r="B21" t="n">
         <v>0.454</v>
       </c>
-      <c r="C21" t="s"/>
+      <c r="C21" t="inlineStr"/>
       <c r="D21" t="n">
         <v>1.632</v>
       </c>
       <c r="E21" t="n">
         <v>2.432</v>
       </c>
-      <c r="F21" t="s"/>
+      <c r="F21" t="inlineStr"/>
       <c r="G21" t="n">
         <v>0.446</v>
       </c>
-      <c r="H21" t="s"/>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="n">
         <v>1.635</v>
       </c>
       <c r="J21" t="n">
         <v>2.43</v>
       </c>
-      <c r="K21" t="s"/>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="1" t="s">
-        <v>31</v>
+      <c r="K21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>2011-05</t>
+        </is>
       </c>
       <c r="B22" t="n">
         <v>0.32</v>
       </c>
-      <c r="C22" t="s"/>
+      <c r="C22" t="inlineStr"/>
       <c r="D22" t="n">
         <v>1.401</v>
       </c>
       <c r="E22" t="n">
         <v>2.272</v>
       </c>
-      <c r="F22" t="s"/>
+      <c r="F22" t="inlineStr"/>
       <c r="G22" t="n">
         <v>0.32</v>
       </c>
-      <c r="H22" t="s"/>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="n">
         <v>1.394</v>
       </c>
       <c r="J22" t="n">
         <v>2.273</v>
       </c>
-      <c r="K22" t="s"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="1" t="s">
-        <v>32</v>
+      <c r="K22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>2011-06</t>
+        </is>
       </c>
       <c r="B23" t="n">
         <v>0.247</v>
       </c>
-      <c r="C23" t="s"/>
+      <c r="C23" t="inlineStr"/>
       <c r="D23" t="n">
         <v>1.151</v>
       </c>
       <c r="E23" t="n">
         <v>2.059</v>
       </c>
-      <c r="F23" t="s"/>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="n">
         <v>0.243</v>
       </c>
-      <c r="H23" t="s"/>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="n">
         <v>1.152</v>
       </c>
       <c r="J23" t="n">
         <v>2.064</v>
       </c>
-      <c r="K23" t="s"/>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="1" t="s">
-        <v>33</v>
+      <c r="K23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>2011-07</t>
+        </is>
       </c>
       <c r="B24" t="n">
         <v>0.168</v>
       </c>
-      <c r="C24" t="s"/>
+      <c r="C24" t="inlineStr"/>
       <c r="D24" t="n">
         <v>1.049</v>
       </c>
       <c r="E24" t="n">
         <v>2.038</v>
       </c>
-      <c r="F24" t="s"/>
+      <c r="F24" t="inlineStr"/>
       <c r="G24" t="n">
         <v>0.164</v>
       </c>
-      <c r="H24" t="s"/>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="n">
         <v>1.029</v>
       </c>
       <c r="J24" t="n">
         <v>2.034</v>
       </c>
-      <c r="K24" t="s"/>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="1" t="s">
-        <v>34</v>
+      <c r="K24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>2011-08</t>
+        </is>
       </c>
       <c r="B25" t="n">
         <v>0.16</v>
       </c>
-      <c r="C25" t="s"/>
+      <c r="C25" t="inlineStr"/>
       <c r="D25" t="n">
         <v>0.642</v>
       </c>
       <c r="E25" t="n">
         <v>1.739</v>
       </c>
-      <c r="F25" t="s"/>
+      <c r="F25" t="inlineStr"/>
       <c r="G25" t="n">
         <v>0.159</v>
       </c>
-      <c r="H25" t="s"/>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="n">
         <v>0.642</v>
       </c>
       <c r="J25" t="n">
         <v>1.739</v>
       </c>
-      <c r="K25" t="s"/>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="1" t="s">
-        <v>35</v>
+      <c r="K25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>2011-09</t>
+        </is>
       </c>
       <c r="B26" t="n">
         <v>0.232</v>
       </c>
-      <c r="C26" t="s"/>
+      <c r="C26" t="inlineStr"/>
       <c r="D26" t="n">
         <v>0.603</v>
       </c>
       <c r="E26" t="n">
         <v>1.308</v>
       </c>
-      <c r="F26" t="s"/>
+      <c r="F26" t="inlineStr"/>
       <c r="G26" t="n">
         <v>0.242</v>
       </c>
-      <c r="H26" t="s"/>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="n">
         <v>0.599</v>
       </c>
       <c r="J26" t="n">
         <v>1.309</v>
       </c>
-      <c r="K26" t="s"/>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="1" t="s">
-        <v>36</v>
+      <c r="K26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>2011-10</t>
+        </is>
       </c>
       <c r="B27" t="n">
         <v>0.255</v>
       </c>
-      <c r="C27" t="s"/>
+      <c r="C27" t="inlineStr"/>
       <c r="D27" t="n">
         <v>0.743</v>
       </c>
       <c r="E27" t="n">
         <v>1.524</v>
       </c>
-      <c r="F27" t="s"/>
+      <c r="F27" t="inlineStr"/>
       <c r="G27" t="n">
         <v>0.255</v>
       </c>
-      <c r="H27" t="s"/>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="n">
         <v>0.743</v>
       </c>
       <c r="J27" t="n">
         <v>1.506</v>
       </c>
-      <c r="K27" t="s"/>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="1" t="s">
-        <v>37</v>
+      <c r="K27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>2011-11</t>
+        </is>
       </c>
       <c r="B28" t="n">
         <v>0.247</v>
@@ -1574,7 +1171,7 @@
       <c r="E28" t="n">
         <v>1.37</v>
       </c>
-      <c r="F28" t="s"/>
+      <c r="F28" t="inlineStr"/>
       <c r="G28" t="n">
         <v>0.241</v>
       </c>
@@ -1587,11 +1184,13 @@
       <c r="J28" t="n">
         <v>1.353</v>
       </c>
-      <c r="K28" t="s"/>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="1" t="s">
-        <v>38</v>
+      <c r="K28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>2011-12</t>
+        </is>
       </c>
       <c r="B29" t="n">
         <v>0.297</v>
@@ -1605,7 +1204,7 @@
       <c r="E29" t="n">
         <v>1.546</v>
       </c>
-      <c r="F29" t="s"/>
+      <c r="F29" t="inlineStr"/>
       <c r="G29" t="n">
         <v>0.302</v>
       </c>
@@ -1618,11 +1217,13 @@
       <c r="J29" t="n">
         <v>1.55</v>
       </c>
-      <c r="K29" t="s"/>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="1" t="s">
-        <v>39</v>
+      <c r="K29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>2012-01</t>
+        </is>
       </c>
       <c r="B30" t="n">
         <v>0.277</v>
@@ -1636,7 +1237,7 @@
       <c r="E30" t="n">
         <v>1.644</v>
       </c>
-      <c r="F30" t="s"/>
+      <c r="F30" t="inlineStr"/>
       <c r="G30" t="n">
         <v>0.276</v>
       </c>
@@ -1649,11 +1250,13 @@
       <c r="J30" t="n">
         <v>1.648</v>
       </c>
-      <c r="K30" t="s"/>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="1" t="s">
-        <v>40</v>
+      <c r="K30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>2012-02</t>
+        </is>
       </c>
       <c r="B31" t="n">
         <v>0.281</v>
@@ -1667,7 +1270,7 @@
       <c r="E31" t="n">
         <v>1.602</v>
       </c>
-      <c r="F31" t="s"/>
+      <c r="F31" t="inlineStr"/>
       <c r="G31" t="n">
         <v>0.261</v>
       </c>
@@ -1680,11 +1283,13 @@
       <c r="J31" t="n">
         <v>1.603</v>
       </c>
-      <c r="K31" t="s"/>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="1" t="s">
-        <v>41</v>
+      <c r="K31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>2012-03</t>
+        </is>
       </c>
       <c r="B32" t="n">
         <v>0.406</v>
@@ -1698,7 +1303,7 @@
       <c r="E32" t="n">
         <v>1.615</v>
       </c>
-      <c r="F32" t="s"/>
+      <c r="F32" t="inlineStr"/>
       <c r="G32" t="n">
         <v>0.406</v>
       </c>
@@ -1711,11 +1316,13 @@
       <c r="J32" t="n">
         <v>1.614</v>
       </c>
-      <c r="K32" t="s"/>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="1" t="s">
-        <v>42</v>
+      <c r="K32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>2012-04</t>
+        </is>
       </c>
       <c r="B33" t="n">
         <v>0.38</v>
@@ -1729,7 +1336,7 @@
       <c r="E33" t="n">
         <v>1.486</v>
       </c>
-      <c r="F33" t="s"/>
+      <c r="F33" t="inlineStr"/>
       <c r="G33" t="n">
         <v>0.38</v>
       </c>
@@ -1742,11 +1349,13 @@
       <c r="J33" t="n">
         <v>1.489</v>
       </c>
-      <c r="K33" t="s"/>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="1" t="s">
-        <v>43</v>
+      <c r="K33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>2012-05</t>
+        </is>
       </c>
       <c r="B34" t="n">
         <v>0.392</v>
@@ -1760,7 +1369,7 @@
       <c r="E34" t="n">
         <v>1.354</v>
       </c>
-      <c r="F34" t="s"/>
+      <c r="F34" t="inlineStr"/>
       <c r="G34" t="n">
         <v>0.392</v>
       </c>
@@ -1773,11 +1382,13 @@
       <c r="J34" t="n">
         <v>1.356</v>
       </c>
-      <c r="K34" t="s"/>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="1" t="s">
-        <v>44</v>
+      <c r="K34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>2012-06</t>
+        </is>
       </c>
       <c r="B35" t="n">
         <v>0.303</v>
@@ -1791,7 +1402,7 @@
       <c r="E35" t="n">
         <v>1.249</v>
       </c>
-      <c r="F35" t="s"/>
+      <c r="F35" t="inlineStr"/>
       <c r="G35" t="n">
         <v>0.303</v>
       </c>
@@ -1804,11 +1415,13 @@
       <c r="J35" t="n">
         <v>1.241</v>
       </c>
-      <c r="K35" t="s"/>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="1" t="s">
-        <v>45</v>
+      <c r="K35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>2012-07</t>
+        </is>
       </c>
       <c r="B36" t="n">
         <v>0.224</v>
@@ -1822,7 +1435,7 @@
       <c r="E36" t="n">
         <v>0.99</v>
       </c>
-      <c r="F36" t="s"/>
+      <c r="F36" t="inlineStr"/>
       <c r="G36" t="n">
         <v>0.223</v>
       </c>
@@ -1835,11 +1448,13 @@
       <c r="J36" t="n">
         <v>0.982</v>
       </c>
-      <c r="K36" t="s"/>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="1" t="s">
-        <v>46</v>
+      <c r="K36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>2012-08</t>
+        </is>
       </c>
       <c r="B37" t="n">
         <v>0.215</v>
@@ -1853,7 +1468,7 @@
       <c r="E37" t="n">
         <v>1.008</v>
       </c>
-      <c r="F37" t="s"/>
+      <c r="F37" t="inlineStr"/>
       <c r="G37" t="n">
         <v>0.221</v>
       </c>
@@ -1866,11 +1481,13 @@
       <c r="J37" t="n">
         <v>1.007</v>
       </c>
-      <c r="K37" t="s"/>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="1" t="s">
-        <v>47</v>
+      <c r="K37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>2012-09</t>
+        </is>
       </c>
       <c r="B38" t="n">
         <v>0.277</v>
@@ -1884,7 +1501,7 @@
       <c r="E38" t="n">
         <v>1.031</v>
       </c>
-      <c r="F38" t="s"/>
+      <c r="F38" t="inlineStr"/>
       <c r="G38" t="n">
         <v>0.265</v>
       </c>
@@ -1897,11 +1514,13 @@
       <c r="J38" t="n">
         <v>1.021</v>
       </c>
-      <c r="K38" t="s"/>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="1" t="s">
-        <v>48</v>
+      <c r="K38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>2012-10</t>
+        </is>
       </c>
       <c r="B39" t="n">
         <v>0.237</v>
@@ -1915,7 +1534,7 @@
       <c r="E39" t="n">
         <v>0.9350000000000001</v>
       </c>
-      <c r="F39" t="s"/>
+      <c r="F39" t="inlineStr"/>
       <c r="G39" t="n">
         <v>0.23</v>
       </c>
@@ -1928,11 +1547,13 @@
       <c r="J39" t="n">
         <v>0.9370000000000001</v>
       </c>
-      <c r="K39" t="s"/>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="1" t="s">
-        <v>49</v>
+      <c r="K39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>2012-11</t>
+        </is>
       </c>
       <c r="B40" t="n">
         <v>0.171</v>
@@ -1946,7 +1567,7 @@
       <c r="E40" t="n">
         <v>0.87</v>
       </c>
-      <c r="F40" t="s"/>
+      <c r="F40" t="inlineStr"/>
       <c r="G40" t="n">
         <v>0.163</v>
       </c>
@@ -1959,11 +1580,13 @@
       <c r="J40" t="n">
         <v>0.868</v>
       </c>
-      <c r="K40" t="s"/>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="1" t="s">
-        <v>50</v>
+      <c r="K40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>2012-12</t>
+        </is>
       </c>
       <c r="B41" t="n">
         <v>0.15</v>
@@ -1977,7 +1600,7 @@
       <c r="E41" t="n">
         <v>0.924</v>
       </c>
-      <c r="F41" t="s"/>
+      <c r="F41" t="inlineStr"/>
       <c r="G41" t="n">
         <v>0.144</v>
       </c>
@@ -1990,11 +1613,13 @@
       <c r="J41" t="n">
         <v>0.925</v>
       </c>
-      <c r="K41" t="s"/>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="1" t="s">
-        <v>51</v>
+      <c r="K41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>2013-01</t>
+        </is>
       </c>
       <c r="B42" t="n">
         <v>0.238</v>
@@ -2008,7 +1633,7 @@
       <c r="E42" t="n">
         <v>1.393</v>
       </c>
-      <c r="F42" t="s"/>
+      <c r="F42" t="inlineStr"/>
       <c r="G42" t="n">
         <v>0.235</v>
       </c>
@@ -2021,11 +1646,13 @@
       <c r="J42" t="n">
         <v>1.404</v>
       </c>
-      <c r="K42" t="s"/>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="1" t="s">
-        <v>52</v>
+      <c r="K42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>2013-02</t>
+        </is>
       </c>
       <c r="B43" t="n">
         <v>0.209</v>
@@ -2039,7 +1666,7 @@
       <c r="E43" t="n">
         <v>1.338</v>
       </c>
-      <c r="F43" t="s"/>
+      <c r="F43" t="inlineStr"/>
       <c r="G43" t="n">
         <v>0.206</v>
       </c>
@@ -2052,11 +1679,13 @@
       <c r="J43" t="n">
         <v>1.352</v>
       </c>
-      <c r="K43" t="s"/>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="1" t="s">
-        <v>53</v>
+      <c r="K43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>2013-03</t>
+        </is>
       </c>
       <c r="B44" t="n">
         <v>0.29</v>
@@ -2070,7 +1699,7 @@
       <c r="E44" t="n">
         <v>1.278</v>
       </c>
-      <c r="F44" t="s"/>
+      <c r="F44" t="inlineStr"/>
       <c r="G44" t="n">
         <v>0.284</v>
       </c>
@@ -2083,11 +1712,13 @@
       <c r="J44" t="n">
         <v>1.274</v>
       </c>
-      <c r="K44" t="s"/>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="1" t="s">
-        <v>54</v>
+      <c r="K44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>2013-04</t>
+        </is>
       </c>
       <c r="B45" t="n">
         <v>0.267</v>
@@ -2101,7 +1732,7 @@
       <c r="E45" t="n">
         <v>1.064</v>
       </c>
-      <c r="F45" t="s"/>
+      <c r="F45" t="inlineStr"/>
       <c r="G45" t="n">
         <v>0.267</v>
       </c>
@@ -2114,11 +1745,13 @@
       <c r="J45" t="n">
         <v>1.063</v>
       </c>
-      <c r="K45" t="s"/>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="1" t="s">
-        <v>55</v>
+      <c r="K45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>2013-05</t>
+        </is>
       </c>
       <c r="B46" t="n">
         <v>0.253</v>
@@ -2132,7 +1765,7 @@
       <c r="E46" t="n">
         <v>1.616</v>
       </c>
-      <c r="F46" t="s"/>
+      <c r="F46" t="inlineStr"/>
       <c r="G46" t="n">
         <v>0.252</v>
       </c>
@@ -2145,11 +1778,13 @@
       <c r="J46" t="n">
         <v>1.628</v>
       </c>
-      <c r="K46" t="s"/>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="1" t="s">
-        <v>56</v>
+      <c r="K46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>2013-06</t>
+        </is>
       </c>
       <c r="B47" t="n">
         <v>0.325</v>
@@ -2163,7 +1798,7 @@
       <c r="E47" t="n">
         <v>2.172</v>
       </c>
-      <c r="F47" t="s"/>
+      <c r="F47" t="inlineStr"/>
       <c r="G47" t="n">
         <v>0.324</v>
       </c>
@@ -2176,11 +1811,13 @@
       <c r="J47" t="n">
         <v>2.18</v>
       </c>
-      <c r="K47" t="s"/>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="1" t="s">
-        <v>57</v>
+      <c r="K47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>2013-07</t>
+        </is>
       </c>
       <c r="B48" t="n">
         <v>0.403</v>
@@ -2194,7 +1831,7 @@
       <c r="E48" t="n">
         <v>2.545</v>
       </c>
-      <c r="F48" t="s"/>
+      <c r="F48" t="inlineStr"/>
       <c r="G48" t="n">
         <v>0.392</v>
       </c>
@@ -2207,11 +1844,13 @@
       <c r="J48" t="n">
         <v>2.599</v>
       </c>
-      <c r="K48" t="s"/>
-    </row>
-    <row r="49" spans="1:11">
-      <c r="A49" s="1" t="s">
-        <v>58</v>
+      <c r="K48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>2013-08</t>
+        </is>
       </c>
       <c r="B49" t="n">
         <v>0.377</v>
@@ -2225,7 +1864,7 @@
       <c r="E49" t="n">
         <v>2.709</v>
       </c>
-      <c r="F49" t="s"/>
+      <c r="F49" t="inlineStr"/>
       <c r="G49" t="n">
         <v>0.376</v>
       </c>
@@ -2238,11 +1877,13 @@
       <c r="J49" t="n">
         <v>2.747</v>
       </c>
-      <c r="K49" t="s"/>
-    </row>
-    <row r="50" spans="1:11">
-      <c r="A50" s="1" t="s">
-        <v>59</v>
+      <c r="K49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>2013-09</t>
+        </is>
       </c>
       <c r="B50" t="n">
         <v>0.504</v>
@@ -2256,7 +1897,7 @@
       <c r="E50" t="n">
         <v>2.557</v>
       </c>
-      <c r="F50" t="s"/>
+      <c r="F50" t="inlineStr"/>
       <c r="G50" t="n">
         <v>0.501</v>
       </c>
@@ -2269,11 +1910,13 @@
       <c r="J50" t="n">
         <v>2.546</v>
       </c>
-      <c r="K50" t="s"/>
-    </row>
-    <row r="51" spans="1:11">
-      <c r="A51" s="1" t="s">
-        <v>60</v>
+      <c r="K50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>2013-10</t>
+        </is>
       </c>
       <c r="B51" t="n">
         <v>0.443</v>
@@ -2287,7 +1930,7 @@
       <c r="E51" t="n">
         <v>2.307</v>
       </c>
-      <c r="F51" t="s"/>
+      <c r="F51" t="inlineStr"/>
       <c r="G51" t="n">
         <v>0.442</v>
       </c>
@@ -2300,11 +1943,13 @@
       <c r="J51" t="n">
         <v>2.307</v>
       </c>
-      <c r="K51" t="s"/>
-    </row>
-    <row r="52" spans="1:11">
-      <c r="A52" s="1" t="s">
-        <v>61</v>
+      <c r="K51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>2013-11</t>
+        </is>
       </c>
       <c r="B52" t="n">
         <v>0.409</v>
@@ -2318,7 +1963,7 @@
       <c r="E52" t="n">
         <v>2.414</v>
       </c>
-      <c r="F52" t="s"/>
+      <c r="F52" t="inlineStr"/>
       <c r="G52" t="n">
         <v>0.4</v>
       </c>
@@ -2331,11 +1976,13 @@
       <c r="J52" t="n">
         <v>2.418</v>
       </c>
-      <c r="K52" t="s"/>
-    </row>
-    <row r="53" spans="1:11">
-      <c r="A53" s="1" t="s">
-        <v>62</v>
+      <c r="K52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>2013-12</t>
+        </is>
       </c>
       <c r="B53" t="n">
         <v>0.488</v>
@@ -2349,7 +1996,7 @@
       <c r="E53" t="n">
         <v>2.693</v>
       </c>
-      <c r="F53" t="s"/>
+      <c r="F53" t="inlineStr"/>
       <c r="G53" t="n">
         <v>0.506</v>
       </c>
@@ -2362,11 +2009,13 @@
       <c r="J53" t="n">
         <v>2.69</v>
       </c>
-      <c r="K53" t="s"/>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="A54" s="1" t="s">
-        <v>63</v>
+      <c r="K53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>2014-01</t>
+        </is>
       </c>
       <c r="B54" t="n">
         <v>0.441</v>
@@ -2380,7 +2029,7 @@
       <c r="E54" t="n">
         <v>2.639</v>
       </c>
-      <c r="F54" t="s"/>
+      <c r="F54" t="inlineStr"/>
       <c r="G54" t="n">
         <v>0.434</v>
       </c>
@@ -2393,11 +2042,13 @@
       <c r="J54" t="n">
         <v>2.627</v>
       </c>
-      <c r="K54" t="s"/>
-    </row>
-    <row r="55" spans="1:11">
-      <c r="A55" s="1" t="s">
-        <v>64</v>
+      <c r="K54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>2014-02</t>
+        </is>
       </c>
       <c r="B55" t="n">
         <v>0.397</v>
@@ -2411,7 +2062,7 @@
       <c r="E55" t="n">
         <v>2.48</v>
       </c>
-      <c r="F55" t="s"/>
+      <c r="F55" t="inlineStr"/>
       <c r="G55" t="n">
         <v>0.392</v>
       </c>
@@ -2424,11 +2075,13 @@
       <c r="J55" t="n">
         <v>2.487</v>
       </c>
-      <c r="K55" t="s"/>
-    </row>
-    <row r="56" spans="1:11">
-      <c r="A56" s="1" t="s">
-        <v>65</v>
+      <c r="K55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>2014-03</t>
+        </is>
       </c>
       <c r="B56" t="n">
         <v>0.619</v>
@@ -2442,7 +2095,7 @@
       <c r="E56" t="n">
         <v>2.516</v>
       </c>
-      <c r="F56" t="s"/>
+      <c r="F56" t="inlineStr"/>
       <c r="G56" t="n">
         <v>0.629</v>
       </c>
@@ -2455,11 +2108,13 @@
       <c r="J56" t="n">
         <v>2.509</v>
       </c>
-      <c r="K56" t="s"/>
-    </row>
-    <row r="57" spans="1:11">
-      <c r="A57" s="1" t="s">
-        <v>66</v>
+      <c r="K56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>2014-04</t>
+        </is>
       </c>
       <c r="B57" t="n">
         <v>0.55</v>
@@ -2473,7 +2128,7 @@
       <c r="E57" t="n">
         <v>2.404</v>
       </c>
-      <c r="F57" t="s"/>
+      <c r="F57" t="inlineStr"/>
       <c r="G57" t="n">
         <v>0.551</v>
       </c>
@@ -2486,11 +2141,13 @@
       <c r="J57" t="n">
         <v>2.409</v>
       </c>
-      <c r="K57" t="s"/>
-    </row>
-    <row r="58" spans="1:11">
-      <c r="A58" s="1" t="s">
-        <v>67</v>
+      <c r="K57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>2014-05</t>
+        </is>
       </c>
       <c r="B58" t="n">
         <v>0.423</v>
@@ -2504,7 +2161,7 @@
       <c r="E58" t="n">
         <v>2.04</v>
       </c>
-      <c r="F58" t="s"/>
+      <c r="F58" t="inlineStr"/>
       <c r="G58" t="n">
         <v>0.423</v>
       </c>
@@ -2517,11 +2174,13 @@
       <c r="J58" t="n">
         <v>2.041</v>
       </c>
-      <c r="K58" t="s"/>
-    </row>
-    <row r="59" spans="1:11">
-      <c r="A59" s="1" t="s">
-        <v>68</v>
+      <c r="K58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>2014-06</t>
+        </is>
       </c>
       <c r="B59" t="n">
         <v>0.421</v>
@@ -2535,7 +2194,7 @@
       <c r="E59" t="n">
         <v>2.074</v>
       </c>
-      <c r="F59" t="s"/>
+      <c r="F59" t="inlineStr"/>
       <c r="G59" t="n">
         <v>0.421</v>
       </c>
@@ -2548,11 +2207,13 @@
       <c r="J59" t="n">
         <v>2.074</v>
       </c>
-      <c r="K59" t="s"/>
-    </row>
-    <row r="60" spans="1:11">
-      <c r="A60" s="1" t="s">
-        <v>69</v>
+      <c r="K59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>2014-07</t>
+        </is>
       </c>
       <c r="B60" t="n">
         <v>0.448</v>
@@ -2566,7 +2227,7 @@
       <c r="E60" t="n">
         <v>2.116</v>
       </c>
-      <c r="F60" t="s"/>
+      <c r="F60" t="inlineStr"/>
       <c r="G60" t="n">
         <v>0.448</v>
       </c>
@@ -2579,11 +2240,13 @@
       <c r="J60" t="n">
         <v>2.116</v>
       </c>
-      <c r="K60" t="s"/>
-    </row>
-    <row r="61" spans="1:11">
-      <c r="A61" s="1" t="s">
-        <v>70</v>
+      <c r="K60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>2014-08</t>
+        </is>
       </c>
       <c r="B61" t="n">
         <v>0.34</v>
@@ -2597,7 +2260,7 @@
       <c r="E61" t="n">
         <v>2.159</v>
       </c>
-      <c r="F61" t="s"/>
+      <c r="F61" t="inlineStr"/>
       <c r="G61" t="n">
         <v>0.34</v>
       </c>
@@ -2610,11 +2273,13 @@
       <c r="J61" t="n">
         <v>2.156</v>
       </c>
-      <c r="K61" t="s"/>
-    </row>
-    <row r="62" spans="1:11">
-      <c r="A62" s="1" t="s">
-        <v>71</v>
+      <c r="K61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>2014-09</t>
+        </is>
       </c>
       <c r="B62" t="n">
         <v>0.613</v>
@@ -2628,7 +2293,7 @@
       <c r="E62" t="n">
         <v>2.245</v>
       </c>
-      <c r="F62" t="s"/>
+      <c r="F62" t="inlineStr"/>
       <c r="G62" t="n">
         <v>0.616</v>
       </c>
@@ -2641,11 +2306,13 @@
       <c r="J62" t="n">
         <v>2.245</v>
       </c>
-      <c r="K62" t="s"/>
-    </row>
-    <row r="63" spans="1:11">
-      <c r="A63" s="1" t="s">
-        <v>72</v>
+      <c r="K62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>2014-10</t>
+        </is>
       </c>
       <c r="B63" t="n">
         <v>0.394</v>
@@ -2659,7 +2326,7 @@
       <c r="E63" t="n">
         <v>2.021</v>
       </c>
-      <c r="F63" t="s"/>
+      <c r="F63" t="inlineStr"/>
       <c r="G63" t="n">
         <v>0.401</v>
       </c>
@@ -2672,11 +2339,13 @@
       <c r="J63" t="n">
         <v>2.061</v>
       </c>
-      <c r="K63" t="s"/>
-    </row>
-    <row r="64" spans="1:11">
-      <c r="A64" s="1" t="s">
-        <v>73</v>
+      <c r="K63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>2014-11</t>
+        </is>
       </c>
       <c r="B64" t="n">
         <v>0.387</v>
@@ -2690,7 +2359,7 @@
       <c r="E64" t="n">
         <v>1.923</v>
       </c>
-      <c r="F64" t="s"/>
+      <c r="F64" t="inlineStr"/>
       <c r="G64" t="n">
         <v>0.384</v>
       </c>
@@ -2703,11 +2372,13 @@
       <c r="J64" t="n">
         <v>1.92</v>
       </c>
-      <c r="K64" t="s"/>
-    </row>
-    <row r="65" spans="1:11">
-      <c r="A65" s="1" t="s">
-        <v>74</v>
+      <c r="K64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>2014-12</t>
+        </is>
       </c>
       <c r="B65" t="n">
         <v>0.609</v>
@@ -2721,7 +2392,7 @@
       <c r="E65" t="n">
         <v>2.047</v>
       </c>
-      <c r="F65" t="s"/>
+      <c r="F65" t="inlineStr"/>
       <c r="G65" t="n">
         <v>0.634</v>
       </c>
@@ -2734,11 +2405,13 @@
       <c r="J65" t="n">
         <v>2.057</v>
       </c>
-      <c r="K65" t="s"/>
-    </row>
-    <row r="66" spans="1:11">
-      <c r="A66" s="1" t="s">
-        <v>75</v>
+      <c r="K65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>2015-01</t>
+        </is>
       </c>
       <c r="B66" t="n">
         <v>0.36</v>
@@ -2752,7 +2425,7 @@
       <c r="E66" t="n">
         <v>1.552</v>
       </c>
-      <c r="F66" t="s"/>
+      <c r="F66" t="inlineStr"/>
       <c r="G66" t="n">
         <v>0.374</v>
       </c>
@@ -2765,11 +2438,13 @@
       <c r="J66" t="n">
         <v>1.546</v>
       </c>
-      <c r="K66" t="s"/>
-    </row>
-    <row r="67" spans="1:11">
-      <c r="A67" s="1" t="s">
-        <v>76</v>
+      <c r="K66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>2015-02</t>
+        </is>
       </c>
       <c r="B67" t="n">
         <v>0.407</v>
@@ -2783,7 +2458,7 @@
       <c r="E67" t="n">
         <v>1.687</v>
       </c>
-      <c r="F67" t="s"/>
+      <c r="F67" t="inlineStr"/>
       <c r="G67" t="n">
         <v>0.399</v>
       </c>
@@ -2796,13 +2471,15 @@
       <c r="J67" t="n">
         <v>1.687</v>
       </c>
-      <c r="K67" t="s"/>
-    </row>
-    <row r="68" spans="1:11">
-      <c r="A68" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B68" t="s"/>
+      <c r="K67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>2015-03</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
       <c r="C68" t="n">
         <v>0.741</v>
       </c>
@@ -2812,8 +2489,8 @@
       <c r="E68" t="n">
         <v>1.59</v>
       </c>
-      <c r="F68" t="s"/>
-      <c r="G68" t="s"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
       <c r="H68" t="n">
         <v>0.741</v>
       </c>
@@ -2823,13 +2500,15 @@
       <c r="J68" t="n">
         <v>1.576</v>
       </c>
-      <c r="K68" t="s"/>
-    </row>
-    <row r="69" spans="1:11">
-      <c r="A69" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B69" t="s"/>
+      <c r="K68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>2015-04</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr"/>
       <c r="C69" t="n">
         <v>0.62</v>
       </c>
@@ -2839,8 +2518,8 @@
       <c r="E69" t="n">
         <v>1.628</v>
       </c>
-      <c r="F69" t="s"/>
-      <c r="G69" t="s"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
       <c r="H69" t="n">
         <v>0.623</v>
       </c>
@@ -2850,13 +2529,15 @@
       <c r="J69" t="n">
         <v>1.638</v>
       </c>
-      <c r="K69" t="s"/>
-    </row>
-    <row r="70" spans="1:11">
-      <c r="A70" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B70" t="s"/>
+      <c r="K69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>2015-05</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
       <c r="C70" t="n">
         <v>0.616</v>
       </c>
@@ -2866,8 +2547,8 @@
       <c r="E70" t="n">
         <v>1.701</v>
       </c>
-      <c r="F70" t="s"/>
-      <c r="G70" t="s"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
       <c r="H70" t="n">
         <v>0.605</v>
       </c>
@@ -2877,13 +2558,15 @@
       <c r="J70" t="n">
         <v>1.711</v>
       </c>
-      <c r="K70" t="s"/>
-    </row>
-    <row r="71" spans="1:11">
-      <c r="A71" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B71" t="s"/>
+      <c r="K70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>2015-06</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr"/>
       <c r="C71" t="n">
         <v>0.535</v>
       </c>
@@ -2893,8 +2576,8 @@
       <c r="E71" t="n">
         <v>1.788</v>
       </c>
-      <c r="F71" t="s"/>
-      <c r="G71" t="s"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
       <c r="H71" t="n">
         <v>0.542</v>
       </c>
@@ -2904,13 +2587,15 @@
       <c r="J71" t="n">
         <v>1.836</v>
       </c>
-      <c r="K71" t="s"/>
-    </row>
-    <row r="72" spans="1:11">
-      <c r="A72" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B72" t="s"/>
+      <c r="K71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>2015-07</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr"/>
       <c r="C72" t="n">
         <v>0.613</v>
       </c>
@@ -2923,7 +2608,7 @@
       <c r="F72" t="n">
         <v>2.17</v>
       </c>
-      <c r="G72" t="s"/>
+      <c r="G72" t="inlineStr"/>
       <c r="H72" t="n">
         <v>0.621</v>
       </c>
@@ -2937,11 +2622,13 @@
         <v>2.179</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
-      <c r="A73" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B73" t="s"/>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>2015-08</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr"/>
       <c r="C73" t="n">
         <v>0.62</v>
       </c>
@@ -2954,7 +2641,7 @@
       <c r="F73" t="n">
         <v>2.103</v>
       </c>
-      <c r="G73" t="s"/>
+      <c r="G73" t="inlineStr"/>
       <c r="H73" t="n">
         <v>0.62</v>
       </c>
@@ -2968,11 +2655,13 @@
         <v>2.095</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
-      <c r="A74" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B74" t="s"/>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>2015-09</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr"/>
       <c r="C74" t="n">
         <v>0.44</v>
       </c>
@@ -2985,7 +2674,7 @@
       <c r="F74" t="n">
         <v>1.783</v>
       </c>
-      <c r="G74" t="s"/>
+      <c r="G74" t="inlineStr"/>
       <c r="H74" t="n">
         <v>0.444</v>
       </c>
@@ -2999,11 +2688,13 @@
         <v>1.785</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
-      <c r="A75" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B75" t="s"/>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>2015-10</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr"/>
       <c r="C75" t="n">
         <v>0.6920000000000001</v>
       </c>
@@ -3016,7 +2707,7 @@
       <c r="F75" t="n">
         <v>1.828</v>
       </c>
-      <c r="G75" t="s"/>
+      <c r="G75" t="inlineStr"/>
       <c r="H75" t="n">
         <v>0.6960000000000001</v>
       </c>
@@ -3030,11 +2721,13 @@
         <v>1.851</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
-      <c r="A76" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B76" t="s"/>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>2015-11</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr"/>
       <c r="C76" t="n">
         <v>0.79</v>
       </c>
@@ -3047,7 +2740,7 @@
       <c r="F76" t="n">
         <v>1.862</v>
       </c>
-      <c r="G76" t="s"/>
+      <c r="G76" t="inlineStr"/>
       <c r="H76" t="n">
         <v>0.792</v>
       </c>
@@ -3061,11 +2754,13 @@
         <v>1.866</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
-      <c r="A77" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B77" t="s"/>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>2015-12</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr"/>
       <c r="C77" t="n">
         <v>0.8170000000000001</v>
       </c>
@@ -3078,7 +2773,7 @@
       <c r="F77" t="n">
         <v>1.937</v>
       </c>
-      <c r="G77" t="s"/>
+      <c r="G77" t="inlineStr"/>
       <c r="H77" t="n">
         <v>0.86</v>
       </c>
@@ -3092,11 +2787,13 @@
         <v>1.94</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
-      <c r="A78" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B78" t="s"/>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>2016-01</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr"/>
       <c r="C78" t="n">
         <v>1.061</v>
       </c>
@@ -3109,7 +2806,7 @@
       <c r="F78" t="n">
         <v>2.001</v>
       </c>
-      <c r="G78" t="s"/>
+      <c r="G78" t="inlineStr"/>
       <c r="H78" t="n">
         <v>0.994</v>
       </c>
@@ -3123,11 +2820,13 @@
         <v>1.927</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
-      <c r="A79" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B79" t="s"/>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>2016-02</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr"/>
       <c r="C79" t="n">
         <v>0.745</v>
       </c>
@@ -3140,7 +2839,7 @@
       <c r="F79" t="n">
         <v>1.822</v>
       </c>
-      <c r="G79" t="s"/>
+      <c r="G79" t="inlineStr"/>
       <c r="H79" t="n">
         <v>0.744</v>
       </c>
@@ -3154,11 +2853,13 @@
         <v>1.822</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
-      <c r="A80" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B80" t="s"/>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>2016-03</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr"/>
       <c r="C80" t="n">
         <v>0.765</v>
       </c>
@@ -3171,7 +2872,7 @@
       <c r="F80" t="n">
         <v>1.717</v>
       </c>
-      <c r="G80" t="s"/>
+      <c r="G80" t="inlineStr"/>
       <c r="H80" t="n">
         <v>0.73</v>
       </c>
@@ -3185,11 +2886,13 @@
         <v>1.681</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
-      <c r="A81" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B81" t="s"/>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>2016-04</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr"/>
       <c r="C81" t="n">
         <v>0.721</v>
       </c>
@@ -3202,7 +2905,7 @@
       <c r="F81" t="n">
         <v>1.742</v>
       </c>
-      <c r="G81" t="s"/>
+      <c r="G81" t="inlineStr"/>
       <c r="H81" t="n">
         <v>0.678</v>
       </c>
@@ -3216,11 +2919,13 @@
         <v>1.767</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
-      <c r="A82" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B82" t="s"/>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>2016-05</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr"/>
       <c r="C82" t="n">
         <v>0.66</v>
       </c>
@@ -3233,7 +2938,7 @@
       <c r="F82" t="n">
         <v>1.63</v>
       </c>
-      <c r="G82" t="s"/>
+      <c r="G82" t="inlineStr"/>
       <c r="H82" t="n">
         <v>0.6920000000000001</v>
       </c>
@@ -3247,11 +2952,13 @@
         <v>1.649</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
-      <c r="A83" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B83" t="s"/>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>2016-06</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr"/>
       <c r="C83" t="n">
         <v>0.548</v>
       </c>
@@ -3264,7 +2971,7 @@
       <c r="F83" t="n">
         <v>1.352</v>
       </c>
-      <c r="G83" t="s"/>
+      <c r="G83" t="inlineStr"/>
       <c r="H83" t="n">
         <v>0.533</v>
       </c>
@@ -3278,11 +2985,13 @@
         <v>1.357</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
-      <c r="A84" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B84" t="s"/>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>2016-07</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr"/>
       <c r="C84" t="n">
         <v>0.5670000000000001</v>
       </c>
@@ -3295,7 +3004,7 @@
       <c r="F84" t="n">
         <v>1.144</v>
       </c>
-      <c r="G84" t="s"/>
+      <c r="G84" t="inlineStr"/>
       <c r="H84" t="n">
         <v>0.545</v>
       </c>
@@ -3309,11 +3018,13 @@
         <v>1.169</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
-      <c r="A85" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B85" t="s"/>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>2016-08</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr"/>
       <c r="C85" t="n">
         <v>0.522</v>
       </c>
@@ -3326,7 +3037,7 @@
       <c r="F85" t="n">
         <v>1.157</v>
       </c>
-      <c r="G85" t="s"/>
+      <c r="G85" t="inlineStr"/>
       <c r="H85" t="n">
         <v>0.516</v>
       </c>
@@ -3340,11 +3051,13 @@
         <v>1.156</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
-      <c r="A86" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B86" t="s"/>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>2016-09</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr"/>
       <c r="C86" t="n">
         <v>0.502</v>
       </c>
@@ -3357,7 +3070,7 @@
       <c r="F86" t="n">
         <v>1.149</v>
       </c>
-      <c r="G86" t="s"/>
+      <c r="G86" t="inlineStr"/>
       <c r="H86" t="n">
         <v>0.49</v>
       </c>
@@ -3371,11 +3084,13 @@
         <v>1.136</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
-      <c r="A87" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B87" t="s"/>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>2016-10</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr"/>
       <c r="C87" t="n">
         <v>0.621</v>
       </c>
@@ -3388,7 +3103,7 @@
       <c r="F87" t="n">
         <v>1.172</v>
       </c>
-      <c r="G87" t="s"/>
+      <c r="G87" t="inlineStr"/>
       <c r="H87" t="n">
         <v>0.63</v>
       </c>
@@ -3402,11 +3117,13 @@
         <v>1.159</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
-      <c r="A88" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B88" t="s"/>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>2016-11</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr"/>
       <c r="C88" t="n">
         <v>0.928</v>
       </c>
@@ -3419,7 +3136,7 @@
       <c r="F88" t="n">
         <v>1.545</v>
       </c>
-      <c r="G88" t="s"/>
+      <c r="G88" t="inlineStr"/>
       <c r="H88" t="n">
         <v>0.966</v>
       </c>
@@ -3433,11 +3150,13 @@
         <v>1.58</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
-      <c r="A89" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B89" t="s"/>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>2016-12</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr"/>
       <c r="C89" t="n">
         <v>1.365</v>
       </c>
@@ -3450,7 +3169,7 @@
       <c r="F89" t="n">
         <v>2.039</v>
       </c>
-      <c r="G89" t="s"/>
+      <c r="G89" t="inlineStr"/>
       <c r="H89" t="n">
         <v>1.366</v>
       </c>
@@ -3464,11 +3183,13 @@
         <v>2.018</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
-      <c r="A90" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B90" t="s"/>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>2017-01</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr"/>
       <c r="C90" t="n">
         <v>1.243</v>
       </c>
@@ -3481,7 +3202,7 @@
       <c r="F90" t="n">
         <v>1.953</v>
       </c>
-      <c r="G90" t="s"/>
+      <c r="G90" t="inlineStr"/>
       <c r="H90" t="n">
         <v>1.251</v>
       </c>
@@ -3495,11 +3216,13 @@
         <v>1.954</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
-      <c r="A91" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B91" t="s"/>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>2017-02</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr"/>
       <c r="C91" t="n">
         <v>1.145</v>
       </c>
@@ -3512,7 +3235,7 @@
       <c r="F91" t="n">
         <v>1.827</v>
       </c>
-      <c r="G91" t="s"/>
+      <c r="G91" t="inlineStr"/>
       <c r="H91" t="n">
         <v>1.141</v>
       </c>
@@ -3526,11 +3249,13 @@
         <v>1.818</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
-      <c r="A92" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B92" t="s"/>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>2017-03</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr"/>
       <c r="C92" t="n">
         <v>1.046</v>
       </c>
@@ -3543,7 +3268,7 @@
       <c r="F92" t="n">
         <v>1.822</v>
       </c>
-      <c r="G92" t="s"/>
+      <c r="G92" t="inlineStr"/>
       <c r="H92" t="n">
         <v>1.05</v>
       </c>
@@ -3557,11 +3282,13 @@
         <v>1.835</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
-      <c r="A93" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B93" t="s"/>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>2017-04</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr"/>
       <c r="C93" t="n">
         <v>0.921</v>
       </c>
@@ -3574,7 +3301,7 @@
       <c r="F93" t="n">
         <v>1.627</v>
       </c>
-      <c r="G93" t="s"/>
+      <c r="G93" t="inlineStr"/>
       <c r="H93" t="n">
         <v>0.9390000000000001</v>
       </c>
@@ -3588,11 +3315,13 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
-      <c r="A94" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B94" t="s"/>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>2017-05</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr"/>
       <c r="C94" t="n">
         <v>0.75</v>
       </c>
@@ -3605,7 +3334,7 @@
       <c r="F94" t="n">
         <v>1.493</v>
       </c>
-      <c r="G94" t="s"/>
+      <c r="G94" t="inlineStr"/>
       <c r="H94" t="n">
         <v>0.764</v>
       </c>
@@ -3619,11 +3348,13 @@
         <v>1.506</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
-      <c r="A95" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B95" t="s"/>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>2017-06</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr"/>
       <c r="C95" t="n">
         <v>0.896</v>
       </c>
@@ -3636,7 +3367,7 @@
       <c r="F95" t="n">
         <v>1.674</v>
       </c>
-      <c r="G95" t="s"/>
+      <c r="G95" t="inlineStr"/>
       <c r="H95" t="n">
         <v>0.887</v>
       </c>
@@ -3650,11 +3381,13 @@
         <v>1.689</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
-      <c r="A96" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B96" t="s"/>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>2017-07</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr"/>
       <c r="C96" t="n">
         <v>0.882</v>
       </c>
@@ -3667,7 +3400,7 @@
       <c r="F96" t="n">
         <v>1.665</v>
       </c>
-      <c r="G96" t="s"/>
+      <c r="G96" t="inlineStr"/>
       <c r="H96" t="n">
         <v>0.882</v>
       </c>
@@ -3681,11 +3414,13 @@
         <v>1.658</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
-      <c r="A97" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B97" t="s"/>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>2017-08</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr"/>
       <c r="C97" t="n">
         <v>0.8290000000000001</v>
       </c>
@@ -3698,7 +3433,7 @@
       <c r="F97" t="n">
         <v>1.553</v>
       </c>
-      <c r="G97" t="s"/>
+      <c r="G97" t="inlineStr"/>
       <c r="H97" t="n">
         <v>0.8240000000000001</v>
       </c>
@@ -3712,11 +3447,13 @@
         <v>1.553</v>
       </c>
     </row>
-    <row r="98" spans="1:11">
-      <c r="A98" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B98" t="s"/>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>2017-09</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr"/>
       <c r="C98" t="n">
         <v>0.898</v>
       </c>
@@ -3729,7 +3466,7 @@
       <c r="F98" t="n">
         <v>1.844</v>
       </c>
-      <c r="G98" t="s"/>
+      <c r="G98" t="inlineStr"/>
       <c r="H98" t="n">
         <v>0.902</v>
       </c>
@@ -3743,11 +3480,13 @@
         <v>1.848</v>
       </c>
     </row>
-    <row r="99" spans="1:11">
-      <c r="A99" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B99" t="s"/>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>2017-10</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr"/>
       <c r="C99" t="n">
         <v>1.264</v>
       </c>
@@ -3760,7 +3499,7 @@
       <c r="F99" t="n">
         <v>1.986</v>
       </c>
-      <c r="G99" t="s"/>
+      <c r="G99" t="inlineStr"/>
       <c r="H99" t="n">
         <v>1.271</v>
       </c>
@@ -3774,11 +3513,13 @@
         <v>1.99</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
-      <c r="A100" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B100" t="s"/>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>2017-11</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr"/>
       <c r="C100" t="n">
         <v>1.339</v>
       </c>
@@ -3791,7 +3532,7 @@
       <c r="F100" t="n">
         <v>2.048</v>
       </c>
-      <c r="G100" t="s"/>
+      <c r="G100" t="inlineStr"/>
       <c r="H100" t="n">
         <v>1.343</v>
       </c>
@@ -3805,11 +3546,13 @@
         <v>2.05</v>
       </c>
     </row>
-    <row r="101" spans="1:11">
-      <c r="A101" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B101" t="s"/>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>2017-12</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr"/>
       <c r="C101" t="n">
         <v>1.523</v>
       </c>
@@ -3822,7 +3565,7 @@
       <c r="F101" t="n">
         <v>2.002</v>
       </c>
-      <c r="G101" t="s"/>
+      <c r="G101" t="inlineStr"/>
       <c r="H101" t="n">
         <v>1.525</v>
       </c>
@@ -3836,11 +3579,13 @@
         <v>2.013</v>
       </c>
     </row>
-    <row r="102" spans="1:11">
-      <c r="A102" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B102" t="s"/>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>2018-01</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr"/>
       <c r="C102" t="n">
         <v>1.482</v>
       </c>
@@ -3853,7 +3598,7 @@
       <c r="F102" t="n">
         <v>2.202</v>
       </c>
-      <c r="G102" t="s"/>
+      <c r="G102" t="inlineStr"/>
       <c r="H102" t="n">
         <v>1.475</v>
       </c>
@@ -3867,11 +3612,13 @@
         <v>2.185</v>
       </c>
     </row>
-    <row r="103" spans="1:11">
-      <c r="A103" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B103" t="s"/>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>2018-02</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr"/>
       <c r="C103" t="n">
         <v>1.413</v>
       </c>
@@ -3884,7 +3631,7 @@
       <c r="F103" t="n">
         <v>2.167</v>
       </c>
-      <c r="G103" t="s"/>
+      <c r="G103" t="inlineStr"/>
       <c r="H103" t="n">
         <v>1.425</v>
       </c>
@@ -3898,11 +3645,13 @@
         <v>2.161</v>
       </c>
     </row>
-    <row r="104" spans="1:11">
-      <c r="A104" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B104" t="s"/>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>2018-03</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr"/>
       <c r="C104" t="n">
         <v>1.488</v>
       </c>
@@ -3915,7 +3664,7 @@
       <c r="F104" t="n">
         <v>2.11</v>
       </c>
-      <c r="G104" t="s"/>
+      <c r="G104" t="inlineStr"/>
       <c r="H104" t="n">
         <v>1.515</v>
       </c>
@@ -3929,11 +3678,13 @@
         <v>2.12</v>
       </c>
     </row>
-    <row r="105" spans="1:11">
-      <c r="A105" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B105" t="s"/>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
+        <is>
+          <t>2018-04</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr"/>
       <c r="C105" t="n">
         <v>1.998</v>
       </c>
@@ -3946,7 +3697,7 @@
       <c r="F105" t="n">
         <v>2.324</v>
       </c>
-      <c r="G105" t="s"/>
+      <c r="G105" t="inlineStr"/>
       <c r="H105" t="n">
         <v>1.997</v>
       </c>
@@ -3960,11 +3711,13 @@
         <v>2.324</v>
       </c>
     </row>
-    <row r="106" spans="1:11">
-      <c r="A106" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B106" t="s"/>
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
+        <is>
+          <t>2018-05</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr"/>
       <c r="C106" t="n">
         <v>1.999</v>
       </c>
@@ -3977,7 +3730,7 @@
       <c r="F106" t="n">
         <v>2.26</v>
       </c>
-      <c r="G106" t="s"/>
+      <c r="G106" t="inlineStr"/>
       <c r="H106" t="n">
         <v>1.998</v>
       </c>
@@ -3991,11 +3744,13 @@
         <v>2.277</v>
       </c>
     </row>
-    <row r="107" spans="1:11">
-      <c r="A107" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B107" t="s"/>
+    <row r="107">
+      <c r="A107" s="1" t="inlineStr">
+        <is>
+          <t>2018-06</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr"/>
       <c r="C107" t="n">
         <v>2.004</v>
       </c>
@@ -4008,7 +3763,7 @@
       <c r="F107" t="n">
         <v>2.36</v>
       </c>
-      <c r="G107" t="s"/>
+      <c r="G107" t="inlineStr"/>
       <c r="H107" t="n">
         <v>2.019</v>
       </c>
@@ -4022,11 +3777,13 @@
         <v>2.36</v>
       </c>
     </row>
-    <row r="108" spans="1:11">
-      <c r="A108" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B108" t="s"/>
+    <row r="108">
+      <c r="A108" s="1" t="inlineStr">
+        <is>
+          <t>2018-07</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr"/>
       <c r="C108" t="n">
         <v>1.932</v>
       </c>
@@ -4039,7 +3796,7 @@
       <c r="F108" t="n">
         <v>2.398</v>
       </c>
-      <c r="G108" t="s"/>
+      <c r="G108" t="inlineStr"/>
       <c r="H108" t="n">
         <v>1.894</v>
       </c>
@@ -4053,11 +3810,13 @@
         <v>2.368</v>
       </c>
     </row>
-    <row r="109" spans="1:11">
-      <c r="A109" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B109" t="s"/>
+    <row r="109">
+      <c r="A109" s="1" t="inlineStr">
+        <is>
+          <t>2018-08</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr"/>
       <c r="C109" t="n">
         <v>2.063</v>
       </c>
@@ -4070,7 +3829,7 @@
       <c r="F109" t="n">
         <v>2.374</v>
       </c>
-      <c r="G109" t="s"/>
+      <c r="G109" t="inlineStr"/>
       <c r="H109" t="n">
         <v>2.062</v>
       </c>
@@ -4084,11 +3843,13 @@
         <v>2.366</v>
       </c>
     </row>
-    <row r="110" spans="1:11">
-      <c r="A110" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B110" t="s"/>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>2018-09</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr"/>
       <c r="C110" t="n">
         <v>2.315</v>
       </c>
@@ -4101,7 +3862,7 @@
       <c r="F110" t="n">
         <v>2.632</v>
       </c>
-      <c r="G110" t="s"/>
+      <c r="G110" t="inlineStr"/>
       <c r="H110" t="n">
         <v>2.303</v>
       </c>
@@ -4115,11 +3876,13 @@
         <v>2.597</v>
       </c>
     </row>
-    <row r="111" spans="1:11">
-      <c r="A111" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B111" t="s"/>
+    <row r="111">
+      <c r="A111" s="1" t="inlineStr">
+        <is>
+          <t>2018-10</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr"/>
       <c r="C111" t="n">
         <v>2.34</v>
       </c>
@@ -4132,7 +3895,7 @@
       <c r="F111" t="n">
         <v>2.557</v>
       </c>
-      <c r="G111" t="s"/>
+      <c r="G111" t="inlineStr"/>
       <c r="H111" t="n">
         <v>2.348</v>
       </c>
@@ -4146,11 +3909,13 @@
         <v>2.566</v>
       </c>
     </row>
-    <row r="112" spans="1:11">
-      <c r="A112" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B112" t="s"/>
+    <row r="112">
+      <c r="A112" s="1" t="inlineStr">
+        <is>
+          <t>2018-11</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr"/>
       <c r="C112" t="n">
         <v>2.219</v>
       </c>
@@ -4163,7 +3928,7 @@
       <c r="F112" t="n">
         <v>2.466</v>
       </c>
-      <c r="G112" t="s"/>
+      <c r="G112" t="inlineStr"/>
       <c r="H112" t="n">
         <v>2.219</v>
       </c>
@@ -4177,11 +3942,13 @@
         <v>2.448</v>
       </c>
     </row>
-    <row r="113" spans="1:11">
-      <c r="A113" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B113" t="s"/>
+    <row r="113">
+      <c r="A113" s="1" t="inlineStr">
+        <is>
+          <t>2018-12</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr"/>
       <c r="C113" t="n">
         <v>1.849</v>
       </c>
@@ -4194,7 +3961,7 @@
       <c r="F113" t="n">
         <v>2.162</v>
       </c>
-      <c r="G113" t="s"/>
+      <c r="G113" t="inlineStr"/>
       <c r="H113" t="n">
         <v>1.816</v>
       </c>
@@ -4208,11 +3975,13 @@
         <v>2.139</v>
       </c>
     </row>
-    <row r="114" spans="1:11">
-      <c r="A114" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B114" t="s"/>
+    <row r="114">
+      <c r="A114" s="1" t="inlineStr">
+        <is>
+          <t>2019-01</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr"/>
       <c r="C114" t="n">
         <v>1.592</v>
       </c>
@@ -4225,7 +3994,7 @@
       <c r="F114" t="n">
         <v>1.98</v>
       </c>
-      <c r="G114" t="s"/>
+      <c r="G114" t="inlineStr"/>
       <c r="H114" t="n">
         <v>1.575</v>
       </c>
@@ -4239,11 +4008,13 @@
         <v>1.975</v>
       </c>
     </row>
-    <row r="115" spans="1:11">
-      <c r="A115" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B115" t="s"/>
+    <row r="115">
+      <c r="A115" s="1" t="inlineStr">
+        <is>
+          <t>2019-02</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr"/>
       <c r="C115" t="n">
         <v>1.555</v>
       </c>
@@ -4256,7 +4027,7 @@
       <c r="F115" t="n">
         <v>1.944</v>
       </c>
-      <c r="G115" t="s"/>
+      <c r="G115" t="inlineStr"/>
       <c r="H115" t="n">
         <v>1.55</v>
       </c>
@@ -4270,11 +4041,13 @@
         <v>1.949</v>
       </c>
     </row>
-    <row r="116" spans="1:11">
-      <c r="A116" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B116" t="s"/>
+    <row r="116">
+      <c r="A116" s="1" t="inlineStr">
+        <is>
+          <t>2019-03</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr"/>
       <c r="C116" t="n">
         <v>1.417</v>
       </c>
@@ -4287,7 +4060,7 @@
       <c r="F116" t="n">
         <v>1.721</v>
       </c>
-      <c r="G116" t="s"/>
+      <c r="G116" t="inlineStr"/>
       <c r="H116" t="n">
         <v>1.414</v>
       </c>
@@ -4301,11 +4074,13 @@
         <v>1.717</v>
       </c>
     </row>
-    <row r="117" spans="1:11">
-      <c r="A117" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B117" t="s"/>
+    <row r="117">
+      <c r="A117" s="1" t="inlineStr">
+        <is>
+          <t>2019-04</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr"/>
       <c r="C117" t="n">
         <v>1.671</v>
       </c>
@@ -4318,7 +4093,7 @@
       <c r="F117" t="n">
         <v>1.871</v>
       </c>
-      <c r="G117" t="s"/>
+      <c r="G117" t="inlineStr"/>
       <c r="H117" t="n">
         <v>1.675</v>
       </c>
@@ -4332,11 +4107,13 @@
         <v>1.86</v>
       </c>
     </row>
-    <row r="118" spans="1:11">
-      <c r="A118" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B118" t="s"/>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
+        <is>
+          <t>2019-05</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr"/>
       <c r="C118" t="n">
         <v>1.704</v>
       </c>
@@ -4349,7 +4126,7 @@
       <c r="F118" t="n">
         <v>1.74</v>
       </c>
-      <c r="G118" t="s"/>
+      <c r="G118" t="inlineStr"/>
       <c r="H118" t="n">
         <v>1.695</v>
       </c>
@@ -4363,11 +4140,13 @@
         <v>1.742</v>
       </c>
     </row>
-    <row r="119" spans="1:11">
-      <c r="A119" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B119" t="s"/>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
+        <is>
+          <t>2019-06</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr"/>
       <c r="C119" t="n">
         <v>1.505</v>
       </c>
@@ -4380,7 +4159,7 @@
       <c r="F119" t="n">
         <v>1.7</v>
       </c>
-      <c r="G119" t="s"/>
+      <c r="G119" t="inlineStr"/>
       <c r="H119" t="n">
         <v>1.518</v>
       </c>
@@ -4394,11 +4173,13 @@
         <v>1.708</v>
       </c>
     </row>
-    <row r="120" spans="1:11">
-      <c r="A120" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B120" t="s"/>
+    <row r="120">
+      <c r="A120" s="1" t="inlineStr">
+        <is>
+          <t>2019-07</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr"/>
       <c r="C120" t="n">
         <v>1.587</v>
       </c>
@@ -4411,7 +4192,7 @@
       <c r="F120" t="n">
         <v>1.721</v>
       </c>
-      <c r="G120" t="s"/>
+      <c r="G120" t="inlineStr"/>
       <c r="H120" t="n">
         <v>1.579</v>
       </c>
@@ -4425,11 +4206,13 @@
         <v>1.714</v>
       </c>
     </row>
-    <row r="121" spans="1:11">
-      <c r="A121" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B121" t="s"/>
+    <row r="121">
+      <c r="A121" s="1" t="inlineStr">
+        <is>
+          <t>2019-08</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr"/>
       <c r="C121" t="n">
         <v>1.523</v>
       </c>
@@ -4442,7 +4225,7 @@
       <c r="F121" t="n">
         <v>1.257</v>
       </c>
-      <c r="G121" t="s"/>
+      <c r="G121" t="inlineStr"/>
       <c r="H121" t="n">
         <v>1.52</v>
       </c>
@@ -4456,11 +4239,13 @@
         <v>1.266</v>
       </c>
     </row>
-    <row r="122" spans="1:11">
-      <c r="A122" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B122" t="s"/>
+    <row r="122">
+      <c r="A122" s="1" t="inlineStr">
+        <is>
+          <t>2019-09</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr"/>
       <c r="C122" t="n">
         <v>1.523</v>
       </c>
@@ -4473,7 +4258,7 @@
       <c r="F122" t="n">
         <v>1.472</v>
       </c>
-      <c r="G122" t="s"/>
+      <c r="G122" t="inlineStr"/>
       <c r="H122" t="n">
         <v>1.488</v>
       </c>
@@ -4487,11 +4272,13 @@
         <v>1.458</v>
       </c>
     </row>
-    <row r="123" spans="1:11">
-      <c r="A123" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B123" t="s"/>
+    <row r="123">
+      <c r="A123" s="1" t="inlineStr">
+        <is>
+          <t>2019-10</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr"/>
       <c r="C123" t="n">
         <v>1.467</v>
       </c>
@@ -4504,7 +4291,7 @@
       <c r="F123" t="n">
         <v>1.567</v>
       </c>
-      <c r="G123" t="s"/>
+      <c r="G123" t="inlineStr"/>
       <c r="H123" t="n">
         <v>1.5</v>
       </c>
@@ -4518,11 +4305,13 @@
         <v>1.59</v>
       </c>
     </row>
-    <row r="124" spans="1:11">
-      <c r="A124" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B124" t="s"/>
+    <row r="124">
+      <c r="A124" s="1" t="inlineStr">
+        <is>
+          <t>2019-11</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr"/>
       <c r="C124" t="n">
         <v>1.56</v>
       </c>
@@ -4535,7 +4324,7 @@
       <c r="F124" t="n">
         <v>1.603</v>
       </c>
-      <c r="G124" t="s"/>
+      <c r="G124" t="inlineStr"/>
       <c r="H124" t="n">
         <v>1.568</v>
       </c>
@@ -4549,11 +4338,13 @@
         <v>1.603</v>
       </c>
     </row>
-    <row r="125" spans="1:11">
-      <c r="A125" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B125" t="s"/>
+    <row r="125">
+      <c r="A125" s="1" t="inlineStr">
+        <is>
+          <t>2019-12</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr"/>
       <c r="C125" t="n">
         <v>1.669</v>
       </c>
@@ -4566,7 +4357,7 @@
       <c r="F125" t="n">
         <v>1.815</v>
       </c>
-      <c r="G125" t="s"/>
+      <c r="G125" t="inlineStr"/>
       <c r="H125" t="n">
         <v>1.684</v>
       </c>
@@ -4580,11 +4371,13 @@
         <v>1.811</v>
       </c>
     </row>
-    <row r="126" spans="1:11">
-      <c r="A126" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B126" t="s"/>
+    <row r="126">
+      <c r="A126" s="1" t="inlineStr">
+        <is>
+          <t>2020-01</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr"/>
       <c r="C126" t="n">
         <v>1.443</v>
       </c>
@@ -4597,7 +4390,7 @@
       <c r="F126" t="n">
         <v>1.449</v>
       </c>
-      <c r="G126" t="s"/>
+      <c r="G126" t="inlineStr"/>
       <c r="H126" t="n">
         <v>1.426</v>
       </c>
@@ -4611,11 +4404,13 @@
         <v>1.422</v>
       </c>
     </row>
-    <row r="127" spans="1:11">
-      <c r="A127" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B127" t="s"/>
+    <row r="127">
+      <c r="A127" s="1" t="inlineStr">
+        <is>
+          <t>2020-02</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr"/>
       <c r="C127" t="n">
         <v>1.002</v>
       </c>
@@ -4628,7 +4423,7 @@
       <c r="F127" t="n">
         <v>1.079</v>
       </c>
-      <c r="G127" t="s"/>
+      <c r="G127" t="inlineStr"/>
       <c r="H127" t="n">
         <v>0.984</v>
       </c>
@@ -4642,11 +4437,13 @@
         <v>1.071</v>
       </c>
     </row>
-    <row r="128" spans="1:11">
-      <c r="A128" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B128" t="s"/>
+    <row r="128">
+      <c r="A128" s="1" t="inlineStr">
+        <is>
+          <t>2020-03</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr"/>
       <c r="C128" t="n">
         <v>0.615</v>
       </c>
@@ -4659,7 +4456,7 @@
       <c r="F128" t="n">
         <v>0.778</v>
       </c>
-      <c r="G128" t="s"/>
+      <c r="G128" t="inlineStr"/>
       <c r="H128" t="n">
         <v>0.607</v>
       </c>
@@ -4673,11 +4470,13 @@
         <v>0.777</v>
       </c>
     </row>
-    <row r="129" spans="1:11">
-      <c r="A129" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B129" t="s"/>
+    <row r="129">
+      <c r="A129" s="1" t="inlineStr">
+        <is>
+          <t>2020-04</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr"/>
       <c r="C129" t="n">
         <v>0.317</v>
       </c>
@@ -4690,7 +4489,7 @@
       <c r="F129" t="n">
         <v>0.647</v>
       </c>
-      <c r="G129" t="s"/>
+      <c r="G129" t="inlineStr"/>
       <c r="H129" t="n">
         <v>0.31</v>
       </c>
@@ -4704,11 +4503,13 @@
         <v>0.635</v>
       </c>
     </row>
-    <row r="130" spans="1:11">
-      <c r="A130" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B130" t="s"/>
+    <row r="130">
+      <c r="A130" s="1" t="inlineStr">
+        <is>
+          <t>2020-05</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr"/>
       <c r="C130" t="n">
         <v>0.5740000000000001</v>
       </c>
@@ -4721,7 +4522,7 @@
       <c r="F130" t="n">
         <v>0.718</v>
       </c>
-      <c r="G130" t="s"/>
+      <c r="G130" t="inlineStr"/>
       <c r="H130" t="n">
         <v>0.58</v>
       </c>
@@ -4735,11 +4536,13 @@
         <v>0.711</v>
       </c>
     </row>
-    <row r="131" spans="1:11">
-      <c r="A131" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B131" t="s"/>
+    <row r="131">
+      <c r="A131" s="1" t="inlineStr">
+        <is>
+          <t>2020-06</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr"/>
       <c r="C131" t="n">
         <v>0.262</v>
       </c>
@@ -4752,7 +4555,7 @@
       <c r="F131" t="n">
         <v>0.728</v>
       </c>
-      <c r="G131" t="s"/>
+      <c r="G131" t="inlineStr"/>
       <c r="H131" t="n">
         <v>0.245</v>
       </c>
@@ -4766,11 +4569,13 @@
         <v>0.719</v>
       </c>
     </row>
-    <row r="132" spans="1:11">
-      <c r="A132" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B132" t="s"/>
+    <row r="132">
+      <c r="A132" s="1" t="inlineStr">
+        <is>
+          <t>2020-07</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr"/>
       <c r="C132" t="n">
         <v>0.08500000000000001</v>
       </c>
@@ -4783,7 +4588,7 @@
       <c r="F132" t="n">
         <v>0.5</v>
       </c>
-      <c r="G132" t="s"/>
+      <c r="G132" t="inlineStr"/>
       <c r="H132" t="n">
         <v>0.082</v>
       </c>
@@ -4797,11 +4602,13 @@
         <v>0.508</v>
       </c>
     </row>
-    <row r="133" spans="1:11">
-      <c r="A133" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B133" t="s"/>
+    <row r="133">
+      <c r="A133" s="1" t="inlineStr">
+        <is>
+          <t>2020-08</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr"/>
       <c r="C133" t="n">
         <v>0.224</v>
       </c>
@@ -4814,7 +4621,7 @@
       <c r="F133" t="n">
         <v>0.708</v>
       </c>
-      <c r="G133" t="s"/>
+      <c r="G133" t="inlineStr"/>
       <c r="H133" t="n">
         <v>0.231</v>
       </c>
@@ -4828,11 +4635,13 @@
         <v>0.711</v>
       </c>
     </row>
-    <row r="134" spans="1:11">
-      <c r="A134" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B134" t="s"/>
+    <row r="134">
+      <c r="A134" s="1" t="inlineStr">
+        <is>
+          <t>2020-09</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr"/>
       <c r="C134" t="n">
         <v>0.141</v>
       </c>
@@ -4845,7 +4654,7 @@
       <c r="F134" t="n">
         <v>0.6840000000000001</v>
       </c>
-      <c r="G134" t="s"/>
+      <c r="G134" t="inlineStr"/>
       <c r="H134" t="n">
         <v>0.122</v>
       </c>
@@ -4859,11 +4668,13 @@
         <v>0.676</v>
       </c>
     </row>
-    <row r="135" spans="1:11">
-      <c r="A135" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B135" t="s"/>
+    <row r="135">
+      <c r="A135" s="1" t="inlineStr">
+        <is>
+          <t>2020-10</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr"/>
       <c r="C135" t="n">
         <v>0.201</v>
       </c>
@@ -4876,7 +4687,7 @@
       <c r="F135" t="n">
         <v>0.8310000000000001</v>
       </c>
-      <c r="G135" t="s"/>
+      <c r="G135" t="inlineStr"/>
       <c r="H135" t="n">
         <v>0.2</v>
       </c>
@@ -4890,11 +4701,13 @@
         <v>0.8260000000000001</v>
       </c>
     </row>
-    <row r="136" spans="1:11">
-      <c r="A136" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B136" t="s"/>
+    <row r="136">
+      <c r="A136" s="1" t="inlineStr">
+        <is>
+          <t>2020-11</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr"/>
       <c r="C136" t="n">
         <v>0.168</v>
       </c>
@@ -4907,7 +4720,7 @@
       <c r="F136" t="n">
         <v>0.904</v>
       </c>
-      <c r="G136" t="s"/>
+      <c r="G136" t="inlineStr"/>
       <c r="H136" t="n">
         <v>0.178</v>
       </c>
@@ -4921,11 +4734,13 @@
         <v>0.909</v>
       </c>
     </row>
-    <row r="137" spans="1:11">
-      <c r="A137" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B137" t="s"/>
+    <row r="137">
+      <c r="A137" s="1" t="inlineStr">
+        <is>
+          <t>2020-12</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr"/>
       <c r="C137" t="n">
         <v>0.133</v>
       </c>
@@ -4938,7 +4753,7 @@
       <c r="F137" t="n">
         <v>0.972</v>
       </c>
-      <c r="G137" t="s"/>
+      <c r="G137" t="inlineStr"/>
       <c r="H137" t="n">
         <v>0.124</v>
       </c>
@@ -4952,11 +4767,13 @@
         <v>0.974</v>
       </c>
     </row>
-    <row r="138" spans="1:11">
-      <c r="A138" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B138" t="s"/>
+    <row r="138">
+      <c r="A138" s="1" t="inlineStr">
+        <is>
+          <t>2021-01</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr"/>
       <c r="C138" t="n">
         <v>0.158</v>
       </c>
@@ -4969,7 +4786,7 @@
       <c r="F138" t="n">
         <v>1.094</v>
       </c>
-      <c r="G138" t="s"/>
+      <c r="G138" t="inlineStr"/>
       <c r="H138" t="n">
         <v>0.161</v>
       </c>
@@ -4983,11 +4800,13 @@
         <v>1.093</v>
       </c>
     </row>
-    <row r="139" spans="1:11">
-      <c r="A139" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B139" t="s"/>
+    <row r="139">
+      <c r="A139" s="1" t="inlineStr">
+        <is>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr"/>
       <c r="C139" t="n">
         <v>0.227</v>
       </c>
@@ -5000,7 +4819,7 @@
       <c r="F139" t="n">
         <v>1.6</v>
       </c>
-      <c r="G139" t="s"/>
+      <c r="G139" t="inlineStr"/>
       <c r="H139" t="n">
         <v>0.237</v>
       </c>
@@ -5014,11 +4833,13 @@
         <v>1.611</v>
       </c>
     </row>
-    <row r="140" spans="1:11">
-      <c r="A140" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B140" t="s"/>
+    <row r="140">
+      <c r="A140" s="1" t="inlineStr">
+        <is>
+          <t>2021-03</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr"/>
       <c r="C140" t="n">
         <v>0.26</v>
       </c>
@@ -5031,7 +4852,7 @@
       <c r="F140" t="n">
         <v>1.777</v>
       </c>
-      <c r="G140" t="s"/>
+      <c r="G140" t="inlineStr"/>
       <c r="H140" t="n">
         <v>0.26</v>
       </c>
@@ -5045,11 +4866,13 @@
         <v>1.785</v>
       </c>
     </row>
-    <row r="141" spans="1:11">
-      <c r="A141" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B141" t="s"/>
+    <row r="141">
+      <c r="A141" s="1" t="inlineStr">
+        <is>
+          <t>2021-04</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr"/>
       <c r="C141" t="n">
         <v>0.286</v>
       </c>
@@ -5062,7 +4885,7 @@
       <c r="F141" t="n">
         <v>1.578</v>
       </c>
-      <c r="G141" t="s"/>
+      <c r="G141" t="inlineStr"/>
       <c r="H141" t="n">
         <v>0.285</v>
       </c>
@@ -5076,11 +4899,13 @@
         <v>1.578</v>
       </c>
     </row>
-    <row r="142" spans="1:11">
-      <c r="A142" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B142" t="s"/>
+    <row r="142">
+      <c r="A142" s="1" t="inlineStr">
+        <is>
+          <t>2021-05</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr"/>
       <c r="C142" t="n">
         <v>0.196</v>
       </c>
@@ -5093,7 +4918,7 @@
       <c r="F142" t="n">
         <v>1.488</v>
       </c>
-      <c r="G142" t="s"/>
+      <c r="G142" t="inlineStr"/>
       <c r="H142" t="n">
         <v>0.203</v>
       </c>
@@ -5107,11 +4932,13 @@
         <v>1.494</v>
       </c>
     </row>
-    <row r="143" spans="1:11">
-      <c r="A143" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B143" t="s"/>
+    <row r="143">
+      <c r="A143" s="1" t="inlineStr">
+        <is>
+          <t>2021-06</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr"/>
       <c r="C143" t="n">
         <v>0.299</v>
       </c>
@@ -5124,7 +4951,7 @@
       <c r="F143" t="n">
         <v>1.529</v>
       </c>
-      <c r="G143" t="s"/>
+      <c r="G143" t="inlineStr"/>
       <c r="H143" t="n">
         <v>0.292</v>
       </c>
@@ -5138,11 +4965,13 @@
         <v>1.516</v>
       </c>
     </row>
-    <row r="144" spans="1:11">
-      <c r="A144" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B144" t="s"/>
+    <row r="144">
+      <c r="A144" s="1" t="inlineStr">
+        <is>
+          <t>2021-07</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr"/>
       <c r="C144" t="n">
         <v>0.212</v>
       </c>
@@ -5155,7 +4984,7 @@
       <c r="F144" t="n">
         <v>1.263</v>
       </c>
-      <c r="G144" t="s"/>
+      <c r="G144" t="inlineStr"/>
       <c r="H144" t="n">
         <v>0.201</v>
       </c>
@@ -5169,11 +4998,13 @@
         <v>1.263</v>
       </c>
     </row>
-    <row r="145" spans="1:11">
-      <c r="A145" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B145" t="s"/>
+    <row r="145">
+      <c r="A145" s="1" t="inlineStr">
+        <is>
+          <t>2021-08</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr"/>
       <c r="C145" t="n">
         <v>0.238</v>
       </c>
@@ -5186,7 +5017,7 @@
       <c r="F145" t="n">
         <v>1.336</v>
       </c>
-      <c r="G145" t="s"/>
+      <c r="G145" t="inlineStr"/>
       <c r="H145" t="n">
         <v>0.226</v>
       </c>
@@ -5200,11 +5031,13 @@
         <v>1.325</v>
       </c>
     </row>
-    <row r="146" spans="1:11">
-      <c r="A146" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B146" t="s"/>
+    <row r="146">
+      <c r="A146" s="1" t="inlineStr">
+        <is>
+          <t>2021-09</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr"/>
       <c r="C146" t="n">
         <v>0.305</v>
       </c>
@@ -5217,7 +5050,7 @@
       <c r="F146" t="n">
         <v>1.559</v>
       </c>
-      <c r="G146" t="s"/>
+      <c r="G146" t="inlineStr"/>
       <c r="H146" t="n">
         <v>0.305</v>
       </c>
@@ -5231,11 +5064,13 @@
         <v>1.565</v>
       </c>
     </row>
-    <row r="147" spans="1:11">
-      <c r="A147" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B147" t="s"/>
+    <row r="147">
+      <c r="A147" s="1" t="inlineStr">
+        <is>
+          <t>2021-10</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr"/>
       <c r="C147" t="n">
         <v>0.517</v>
       </c>
@@ -5248,7 +5083,7 @@
       <c r="F147" t="n">
         <v>1.663</v>
       </c>
-      <c r="G147" t="s"/>
+      <c r="G147" t="inlineStr"/>
       <c r="H147" t="n">
         <v>0.513</v>
       </c>
@@ -5262,11 +5097,13 @@
         <v>1.697</v>
       </c>
     </row>
-    <row r="148" spans="1:11">
-      <c r="A148" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B148" t="s"/>
+    <row r="148">
+      <c r="A148" s="1" t="inlineStr">
+        <is>
+          <t>2021-11</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr"/>
       <c r="C148" t="n">
         <v>0.552</v>
       </c>
@@ -5279,7 +5116,7 @@
       <c r="F148" t="n">
         <v>1.654</v>
       </c>
-      <c r="G148" t="s"/>
+      <c r="G148" t="inlineStr"/>
       <c r="H148" t="n">
         <v>0.553</v>
       </c>
@@ -5291,6 +5128,105 @@
       </c>
       <c r="K148" t="n">
         <v>1.641</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="inlineStr">
+        <is>
+          <t>2021-12</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr"/>
+      <c r="C149" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D149" t="n">
+        <v>1.184</v>
+      </c>
+      <c r="E149" t="n">
+        <v>1.504</v>
+      </c>
+      <c r="F149" t="n">
+        <v>1.585</v>
+      </c>
+      <c r="G149" t="inlineStr"/>
+      <c r="H149" t="n">
+        <v>0.761</v>
+      </c>
+      <c r="I149" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="J149" t="n">
+        <v>1.509</v>
+      </c>
+      <c r="K149" t="n">
+        <v>1.602</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="inlineStr">
+        <is>
+          <t>2022-01</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr"/>
+      <c r="C150" t="n">
+        <v>0.919</v>
+      </c>
+      <c r="D150" t="n">
+        <v>1.344</v>
+      </c>
+      <c r="E150" t="n">
+        <v>1.717</v>
+      </c>
+      <c r="F150" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="G150" t="inlineStr"/>
+      <c r="H150" t="n">
+        <v>0.907</v>
+      </c>
+      <c r="I150" t="n">
+        <v>1.344</v>
+      </c>
+      <c r="J150" t="n">
+        <v>1.717</v>
+      </c>
+      <c r="K150" t="n">
+        <v>1.871</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="inlineStr">
+        <is>
+          <t>2022-02</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr"/>
+      <c r="C151" t="n">
+        <v>0.977</v>
+      </c>
+      <c r="D151" t="n">
+        <v>1.443</v>
+      </c>
+      <c r="E151" t="n">
+        <v>1.777</v>
+      </c>
+      <c r="F151" t="n">
+        <v>1.985</v>
+      </c>
+      <c r="G151" t="inlineStr"/>
+      <c r="H151" t="n">
+        <v>0.978</v>
+      </c>
+      <c r="I151" t="n">
+        <v>1.442</v>
+      </c>
+      <c r="J151" t="n">
+        <v>1.795</v>
+      </c>
+      <c r="K151" t="n">
+        <v>2.011</v>
       </c>
     </row>
   </sheetData>

--- a/data/532/HKMA/Prices and yields of Government Bonds.xlsx
+++ b/data/532/HKMA/Prices and yields of Government Bonds.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K151"/>
+  <dimension ref="A1:K152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5229,6 +5229,39 @@
         <v>2.011</v>
       </c>
     </row>
+    <row r="152">
+      <c r="A152" s="1" t="inlineStr">
+        <is>
+          <t>2022-03</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr"/>
+      <c r="C152" t="n">
+        <v>1.632</v>
+      </c>
+      <c r="D152" t="n">
+        <v>1.971</v>
+      </c>
+      <c r="E152" t="n">
+        <v>2.063</v>
+      </c>
+      <c r="F152" t="n">
+        <v>2.189</v>
+      </c>
+      <c r="G152" t="inlineStr"/>
+      <c r="H152" t="n">
+        <v>1.608</v>
+      </c>
+      <c r="I152" t="n">
+        <v>1.945</v>
+      </c>
+      <c r="J152" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="K152" t="n">
+        <v>2.185</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
